--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_9_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_9_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2742915.254285234</v>
+        <v>-2743689.489206371</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681858</v>
+        <v>590120.965168186</v>
       </c>
     </row>
     <row r="9">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="C8" t="n">
-        <v>39.88136420416884</v>
+        <v>12.31959957209772</v>
       </c>
       <c r="D8" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>19.61346305263856</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>39.88136420416884</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G8" t="n">
         <v>14.85476540383092</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1224,61 +1224,61 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>35.12750559103189</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>39.88136420416884</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="Y9" t="n">
         <v>39.88136420416884</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>39.88136420416884</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>20.35309587319853</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>20.35309587319854</v>
+      </c>
+      <c r="W10" t="n">
         <v>39.88136420416884</v>
-      </c>
-      <c r="S10" t="n">
-        <v>39.88136420416884</v>
-      </c>
-      <c r="T10" t="n">
-        <v>39.88136420416884</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.5051698924239</v>
+        <v>82.69435082039087</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>66.25482342029244</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>260.9067956563163</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>285.0826233815697</v>
+        <v>285.0826233815698</v>
       </c>
       <c r="G11" t="n">
-        <v>292.1288013013914</v>
+        <v>292.1288013013915</v>
       </c>
       <c r="H11" t="n">
-        <v>210.6612460886614</v>
+        <v>210.6612460886615</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.92443839553179</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>98.50067277226636</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>129.2253455572959</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.3219814235483</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.4758316522647</v>
+        <v>264.4758316522648</v>
       </c>
     </row>
     <row r="12">
@@ -1449,19 +1449,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>48.81434382842986</v>
+        <v>48.81434382842995</v>
       </c>
       <c r="D12" t="n">
-        <v>126.8090110277728</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>33.8221936082027</v>
+        <v>33.8221936082028</v>
       </c>
       <c r="F12" t="n">
-        <v>21.29499198457816</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>13.53656848478146</v>
+        <v>38.84847483270661</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.59592120417298</v>
       </c>
       <c r="S12" t="n">
-        <v>41.63490948140138</v>
+        <v>163.8461495803725</v>
       </c>
       <c r="T12" t="n">
-        <v>75.0612300112043</v>
+        <v>75.0612300112044</v>
       </c>
       <c r="U12" t="n">
         <v>224.6390585394848</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>109.6974909406841</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>127.778106651029</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>82.25038950950723</v>
       </c>
       <c r="Y12" t="n">
         <v>203.671151418586</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.87245139171267</v>
+        <v>57.87245139171277</v>
       </c>
       <c r="C13" t="n">
-        <v>45.1253128322312</v>
+        <v>45.1253128322313</v>
       </c>
       <c r="D13" t="n">
-        <v>26.79432641554823</v>
+        <v>26.79432641554833</v>
       </c>
       <c r="E13" t="n">
-        <v>24.76338407422804</v>
+        <v>24.76338407422814</v>
       </c>
       <c r="F13" t="n">
-        <v>23.94778131083336</v>
+        <v>23.94778131083346</v>
       </c>
       <c r="G13" t="n">
-        <v>45.44746136318768</v>
+        <v>45.44746136318778</v>
       </c>
       <c r="H13" t="n">
-        <v>37.37003242217872</v>
+        <v>37.37003242217881</v>
       </c>
       <c r="I13" t="n">
-        <v>24.60389084410407</v>
+        <v>24.60389084410417</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.79836742102025</v>
+        <v>40.79836742102034</v>
       </c>
       <c r="S13" t="n">
-        <v>96.12242798919034</v>
+        <v>96.12242798919044</v>
       </c>
       <c r="T13" t="n">
-        <v>105.1347067112988</v>
+        <v>105.1347067112989</v>
       </c>
       <c r="U13" t="n">
-        <v>158.7075214136627</v>
+        <v>163.828436430205</v>
       </c>
       <c r="V13" t="n">
-        <v>130.725110967968</v>
+        <v>130.7251109679681</v>
       </c>
       <c r="W13" t="n">
-        <v>163.8813367884444</v>
+        <v>158.7604217718994</v>
       </c>
       <c r="X13" t="n">
-        <v>103.9291198333381</v>
+        <v>103.9291198333382</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.53743376879709</v>
+        <v>96.53743376879719</v>
       </c>
     </row>
     <row r="14">
@@ -1607,16 +1607,16 @@
         <v>261.505169892424</v>
       </c>
       <c r="C14" t="n">
-        <v>106.7510428360863</v>
+        <v>244.7738555799716</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>234.3934926556273</v>
       </c>
       <c r="E14" t="n">
-        <v>260.9067956563164</v>
+        <v>31.91861065360547</v>
       </c>
       <c r="F14" t="n">
-        <v>285.0826233815698</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>292.1288013013914</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>63.16917062543702</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>206.3219814235482</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>228.3188769015835</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>248.6503590321983</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>264.4758316522647</v>
       </c>
     </row>
     <row r="15">
@@ -1686,22 +1686,22 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>151.7221713805282</v>
       </c>
       <c r="D15" t="n">
-        <v>23.90118347567446</v>
+        <v>23.90118347567447</v>
       </c>
       <c r="E15" t="n">
-        <v>33.82219360820272</v>
+        <v>33.82219360820274</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>21.2949919845782</v>
       </c>
       <c r="G15" t="n">
-        <v>13.53656848478149</v>
+        <v>13.5365684847815</v>
       </c>
       <c r="H15" t="n">
-        <v>102.9078275520985</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>41.63490948140141</v>
+        <v>41.63490948140142</v>
       </c>
       <c r="T15" t="n">
-        <v>75.06123001120433</v>
+        <v>75.06123001120434</v>
       </c>
       <c r="U15" t="n">
-        <v>102.4278184405137</v>
+        <v>224.6390585394848</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>127.7781066510289</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.8724513917127</v>
+        <v>57.87245139171272</v>
       </c>
       <c r="C16" t="n">
-        <v>45.12531283223123</v>
+        <v>45.12531283223124</v>
       </c>
       <c r="D16" t="n">
-        <v>26.79432641554826</v>
+        <v>26.79432641554827</v>
       </c>
       <c r="E16" t="n">
-        <v>24.76338407422807</v>
+        <v>24.76338407422809</v>
       </c>
       <c r="F16" t="n">
-        <v>23.94778131083339</v>
+        <v>23.94778131083341</v>
       </c>
       <c r="G16" t="n">
-        <v>45.44746136318771</v>
+        <v>45.44746136318772</v>
       </c>
       <c r="H16" t="n">
-        <v>37.37003242217874</v>
+        <v>37.37003242217875</v>
       </c>
       <c r="I16" t="n">
-        <v>24.6038908441041</v>
+        <v>24.60389084410411</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.79836742102027</v>
+        <v>40.79836742102029</v>
       </c>
       <c r="S16" t="n">
-        <v>96.12242798919037</v>
+        <v>96.12242798919038</v>
       </c>
       <c r="T16" t="n">
-        <v>105.1347067112988</v>
+        <v>105.1347067112989</v>
       </c>
       <c r="U16" t="n">
-        <v>158.7075214136622</v>
+        <v>163.828436430205</v>
       </c>
       <c r="V16" t="n">
-        <v>130.725110967968</v>
+        <v>130.7251109679681</v>
       </c>
       <c r="W16" t="n">
-        <v>163.8813367884444</v>
+        <v>158.7604217719016</v>
       </c>
       <c r="X16" t="n">
-        <v>103.9291198333381</v>
+        <v>103.9291198333382</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.53743376879711</v>
+        <v>96.53743376879713</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>132.2744020114663</v>
       </c>
       <c r="E17" t="n">
-        <v>158.7877050121553</v>
+        <v>158.7877050121554</v>
       </c>
       <c r="F17" t="n">
         <v>182.9635327374087</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>27.10625491313482</v>
+        <v>27.10625491313485</v>
       </c>
       <c r="V17" t="n">
         <v>104.2028907793872</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>196.9200922491162</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.015616067137824</v>
+        <v>3.015616067137852</v>
       </c>
       <c r="U19" t="n">
-        <v>61.70934578604395</v>
+        <v>61.70934578604398</v>
       </c>
       <c r="V19" t="n">
-        <v>28.60602032380703</v>
+        <v>28.60602032380706</v>
       </c>
       <c r="W19" t="n">
-        <v>61.76224614428341</v>
+        <v>61.76224614428344</v>
       </c>
       <c r="X19" t="n">
-        <v>1.810029189177129</v>
+        <v>1.810029189177158</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>196.9200922491158</v>
       </c>
     </row>
     <row r="20">
@@ -2166,10 +2166,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>43.83524092432435</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>124.9680673802598</v>
+        <v>224.6390585394848</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>163.0096075199914</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>36.92610079626268</v>
+        <v>199.935708316254</v>
       </c>
       <c r="U22" t="n">
         <v>61.70934578604395</v>
@@ -2403,10 +2403,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>43.83524092432391</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6390585394848</v>
+        <v>0.3087277963526656</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>200.5346369163886</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>196.9200922491162</v>
       </c>
       <c r="T25" t="n">
-        <v>199.935708316254</v>
+        <v>3.015616067137824</v>
       </c>
       <c r="U25" t="n">
         <v>61.70934578604395</v>
@@ -2567,13 +2567,13 @@
         <v>264.5817762804569</v>
       </c>
       <c r="G26" t="n">
-        <v>271.6279542002785</v>
+        <v>271.6279542002786</v>
       </c>
       <c r="H26" t="n">
-        <v>190.1603989875485</v>
+        <v>190.1603989875486</v>
       </c>
       <c r="I26" t="n">
-        <v>42.66832352432414</v>
+        <v>42.66832352432416</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.42359129441886</v>
+        <v>51.42359129441888</v>
       </c>
       <c r="T26" t="n">
-        <v>77.99982567115342</v>
+        <v>77.99982567115345</v>
       </c>
       <c r="U26" t="n">
         <v>108.724498456183</v>
@@ -2621,7 +2621,7 @@
         <v>228.1495119310854</v>
       </c>
       <c r="Y26" t="n">
-        <v>243.9749845511518</v>
+        <v>243.9749845511519</v>
       </c>
     </row>
     <row r="27">
@@ -2646,7 +2646,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>78.96988074430864</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>21.13406238028854</v>
+        <v>21.13406238028857</v>
       </c>
       <c r="T27" t="n">
-        <v>54.56038291009147</v>
+        <v>133.5302636544004</v>
       </c>
       <c r="U27" t="n">
         <v>224.6390585394848</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.37160429059983</v>
+        <v>37.37160429059986</v>
       </c>
       <c r="C28" t="n">
-        <v>24.62446573111836</v>
+        <v>24.62446573111839</v>
       </c>
       <c r="D28" t="n">
-        <v>6.293479314435388</v>
+        <v>6.293479314435416</v>
       </c>
       <c r="E28" t="n">
-        <v>4.262536973115203</v>
+        <v>4.262536973115232</v>
       </c>
       <c r="F28" t="n">
-        <v>3.446934209720524</v>
+        <v>3.446934209720553</v>
       </c>
       <c r="G28" t="n">
-        <v>24.94661426207484</v>
+        <v>24.94661426207487</v>
       </c>
       <c r="H28" t="n">
-        <v>16.86918532106587</v>
+        <v>16.8691853210659</v>
       </c>
       <c r="I28" t="n">
-        <v>4.103043742991231</v>
+        <v>4.103043742991256</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.29752031990741</v>
+        <v>20.29752031990743</v>
       </c>
       <c r="S28" t="n">
-        <v>75.6215808880775</v>
+        <v>75.62158088807752</v>
       </c>
       <c r="T28" t="n">
-        <v>84.63385961018598</v>
+        <v>84.63385961018601</v>
       </c>
       <c r="U28" t="n">
         <v>143.3275893290921</v>
@@ -2776,10 +2776,10 @@
         <v>143.3804896873316</v>
       </c>
       <c r="X28" t="n">
-        <v>83.42827273222528</v>
+        <v>83.42827273222531</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.03658666768425</v>
+        <v>76.03658666768428</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>224.2730084788587</v>
       </c>
       <c r="D29" t="n">
-        <v>213.8926455545144</v>
+        <v>213.8926455545145</v>
       </c>
       <c r="E29" t="n">
         <v>240.4059485552035</v>
@@ -2804,13 +2804,13 @@
         <v>264.5817762804569</v>
       </c>
       <c r="G29" t="n">
-        <v>271.6279542002785</v>
+        <v>271.6279542002786</v>
       </c>
       <c r="H29" t="n">
-        <v>190.1603989875485</v>
+        <v>190.1603989875486</v>
       </c>
       <c r="I29" t="n">
-        <v>42.66832352432414</v>
+        <v>42.66832352432419</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.42359129441886</v>
+        <v>51.42359129441891</v>
       </c>
       <c r="T29" t="n">
-        <v>77.99982567115342</v>
+        <v>77.99982567115347</v>
       </c>
       <c r="U29" t="n">
         <v>108.724498456183</v>
@@ -2852,13 +2852,13 @@
         <v>185.8211343224354</v>
       </c>
       <c r="W29" t="n">
-        <v>207.8180298004706</v>
+        <v>207.8180298004707</v>
       </c>
       <c r="X29" t="n">
-        <v>228.1495119310854</v>
+        <v>228.1495119310855</v>
       </c>
       <c r="Y29" t="n">
-        <v>243.9749845511518</v>
+        <v>243.9749845511519</v>
       </c>
     </row>
     <row r="30">
@@ -2883,7 +2883,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>78.96988074430863</v>
+        <v>135.7478085837526</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>21.13406238028854</v>
+        <v>21.13406238028859</v>
       </c>
       <c r="T30" t="n">
-        <v>54.56038291009147</v>
+        <v>54.56038291009153</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6390585394848</v>
+        <v>167.8611307000408</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.37160429059983</v>
+        <v>37.37160429059989</v>
       </c>
       <c r="C31" t="n">
-        <v>24.62446573111836</v>
+        <v>24.62446573111842</v>
       </c>
       <c r="D31" t="n">
-        <v>6.293479314435388</v>
+        <v>6.293479314435444</v>
       </c>
       <c r="E31" t="n">
-        <v>4.262536973115203</v>
+        <v>4.26253697311526</v>
       </c>
       <c r="F31" t="n">
-        <v>3.446934209720524</v>
+        <v>3.446934209720581</v>
       </c>
       <c r="G31" t="n">
-        <v>24.94661426207484</v>
+        <v>24.9466142620749</v>
       </c>
       <c r="H31" t="n">
-        <v>16.86918532106587</v>
+        <v>16.86918532106593</v>
       </c>
       <c r="I31" t="n">
-        <v>4.103043742991231</v>
+        <v>4.103043742991284</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.29752031990741</v>
+        <v>20.29752031990746</v>
       </c>
       <c r="S31" t="n">
-        <v>75.6215808880775</v>
+        <v>75.62158088807755</v>
       </c>
       <c r="T31" t="n">
-        <v>84.63385961018598</v>
+        <v>84.63385961018604</v>
       </c>
       <c r="U31" t="n">
         <v>143.3275893290921</v>
@@ -3013,10 +3013,10 @@
         <v>143.3804896873316</v>
       </c>
       <c r="X31" t="n">
-        <v>83.42827273222528</v>
+        <v>83.42827273222534</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.03658666768425</v>
+        <v>76.0365866676843</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>203.5745390076119</v>
       </c>
       <c r="E32" t="n">
-        <v>230.087842008301</v>
+        <v>230.0878420083009</v>
       </c>
       <c r="F32" t="n">
         <v>254.2636697335543</v>
@@ -3047,7 +3047,7 @@
         <v>179.842292440646</v>
       </c>
       <c r="I32" t="n">
-        <v>32.35021697742161</v>
+        <v>32.35021697742158</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>41.10548474751633</v>
+        <v>41.1054847475163</v>
       </c>
       <c r="T32" t="n">
-        <v>67.68171912425089</v>
+        <v>67.68171912425086</v>
       </c>
       <c r="U32" t="n">
-        <v>98.40639190928044</v>
+        <v>98.40639190928042</v>
       </c>
       <c r="V32" t="n">
         <v>175.5030277755328</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>10.81595583338601</v>
+        <v>10.81595583338598</v>
       </c>
       <c r="T33" t="n">
-        <v>197.2724701101754</v>
+        <v>143.848370201303</v>
       </c>
       <c r="U33" t="n">
-        <v>171.2149586306118</v>
+        <v>224.6390585394848</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.05349774369731</v>
+        <v>27.05349774369728</v>
       </c>
       <c r="C34" t="n">
-        <v>14.30635918421584</v>
+        <v>14.30635918421581</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>14.62850771517231</v>
+        <v>14.62850771517228</v>
       </c>
       <c r="H34" t="n">
-        <v>6.551078774163344</v>
+        <v>6.551078774163315</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.979413773004881</v>
+        <v>9.979413773004849</v>
       </c>
       <c r="S34" t="n">
-        <v>65.30347434117498</v>
+        <v>65.30347434117493</v>
       </c>
       <c r="T34" t="n">
-        <v>74.31575306328345</v>
+        <v>74.31575306328342</v>
       </c>
       <c r="U34" t="n">
-        <v>133.0094827821896</v>
+        <v>133.0094827821895</v>
       </c>
       <c r="V34" t="n">
-        <v>99.90615731995265</v>
+        <v>99.90615731995263</v>
       </c>
       <c r="W34" t="n">
         <v>133.062383140429</v>
       </c>
       <c r="X34" t="n">
-        <v>73.11016618532275</v>
+        <v>73.11016618532273</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.71848012078172</v>
+        <v>65.71848012078169</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>191.113352178378</v>
+        <v>191.1133521783781</v>
       </c>
       <c r="C35" t="n">
-        <v>174.3820378659256</v>
+        <v>174.3820378659257</v>
       </c>
       <c r="D35" t="n">
-        <v>164.0016749415814</v>
+        <v>164.0016749415815</v>
       </c>
       <c r="E35" t="n">
-        <v>190.5149779422704</v>
+        <v>190.5149779422705</v>
       </c>
       <c r="F35" t="n">
-        <v>214.6908056675238</v>
+        <v>214.6908056675239</v>
       </c>
       <c r="G35" t="n">
-        <v>221.7369835873455</v>
+        <v>221.7369835873456</v>
       </c>
       <c r="H35" t="n">
-        <v>140.2694283746155</v>
+        <v>140.2694283746156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.53262068148581</v>
+        <v>1.532620681485895</v>
       </c>
       <c r="T35" t="n">
-        <v>28.10885505822037</v>
+        <v>28.10885505822046</v>
       </c>
       <c r="U35" t="n">
-        <v>58.83352784324993</v>
+        <v>58.83352784325001</v>
       </c>
       <c r="V35" t="n">
-        <v>135.9301637095023</v>
+        <v>135.9301637095024</v>
       </c>
       <c r="W35" t="n">
-        <v>157.9270591875376</v>
+        <v>157.9270591875377</v>
       </c>
       <c r="X35" t="n">
-        <v>178.2585413181524</v>
+        <v>178.2585413181525</v>
       </c>
       <c r="Y35" t="n">
-        <v>194.0840139382188</v>
+        <v>194.0840139382189</v>
       </c>
     </row>
     <row r="36">
@@ -3357,13 +3357,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.7478085837526</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.24710515377821</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.2724701101754</v>
+        <v>4.669412297158507</v>
       </c>
       <c r="U36" t="n">
-        <v>182.030914463998</v>
+        <v>224.6390585394848</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>25.73061027514445</v>
+        <v>25.73061027514454</v>
       </c>
       <c r="T37" t="n">
-        <v>34.74288899725293</v>
+        <v>34.74288899725301</v>
       </c>
       <c r="U37" t="n">
-        <v>93.43661871615906</v>
+        <v>93.43661871615915</v>
       </c>
       <c r="V37" t="n">
-        <v>60.33329325392214</v>
+        <v>60.33329325392222</v>
       </c>
       <c r="W37" t="n">
-        <v>93.48951907439852</v>
+        <v>93.4895190743986</v>
       </c>
       <c r="X37" t="n">
-        <v>33.53730211929224</v>
+        <v>33.53730211929232</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.1456160547512</v>
+        <v>26.14561605475129</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>191.113352178378</v>
+        <v>191.1133521783781</v>
       </c>
       <c r="C38" t="n">
-        <v>174.3820378659256</v>
+        <v>174.3820378659257</v>
       </c>
       <c r="D38" t="n">
-        <v>164.0016749415814</v>
+        <v>164.0016749415815</v>
       </c>
       <c r="E38" t="n">
-        <v>190.5149779422704</v>
+        <v>190.5149779422705</v>
       </c>
       <c r="F38" t="n">
-        <v>214.6908056675238</v>
+        <v>214.6908056675239</v>
       </c>
       <c r="G38" t="n">
-        <v>221.7369835873455</v>
+        <v>221.7369835873456</v>
       </c>
       <c r="H38" t="n">
-        <v>140.2694283746155</v>
+        <v>140.2694283746156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.53262068148581</v>
+        <v>1.532620681485895</v>
       </c>
       <c r="T38" t="n">
-        <v>28.10885505822037</v>
+        <v>28.10885505822046</v>
       </c>
       <c r="U38" t="n">
-        <v>58.83352784324993</v>
+        <v>58.83352784325001</v>
       </c>
       <c r="V38" t="n">
-        <v>135.9301637095023</v>
+        <v>135.9301637095024</v>
       </c>
       <c r="W38" t="n">
-        <v>157.9270591875376</v>
+        <v>157.9270591875377</v>
       </c>
       <c r="X38" t="n">
-        <v>178.2585413181524</v>
+        <v>178.2585413181525</v>
       </c>
       <c r="Y38" t="n">
-        <v>194.0840139382188</v>
+        <v>194.0840139382189</v>
       </c>
     </row>
     <row r="39">
@@ -3633,10 +3633,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.2724701101754</v>
+        <v>154.6643260346896</v>
       </c>
       <c r="U39" t="n">
-        <v>182.030914463998</v>
+        <v>224.6390585394848</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>25.73061027514445</v>
+        <v>25.73061027514454</v>
       </c>
       <c r="T40" t="n">
-        <v>34.74288899725293</v>
+        <v>34.74288899725301</v>
       </c>
       <c r="U40" t="n">
-        <v>93.43661871615906</v>
+        <v>93.43661871615915</v>
       </c>
       <c r="V40" t="n">
-        <v>60.33329325392214</v>
+        <v>60.33329325392222</v>
       </c>
       <c r="W40" t="n">
-        <v>93.48951907439852</v>
+        <v>93.4895190743986</v>
       </c>
       <c r="X40" t="n">
-        <v>33.53730211929224</v>
+        <v>33.53730211929232</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.1456160547512</v>
+        <v>26.14561605475129</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.53262068148581</v>
+        <v>1.532620681485803</v>
       </c>
       <c r="T41" t="n">
         <v>28.10885505822037</v>
@@ -3828,16 +3828,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7478085837526</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>107.8027156533609</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>49.95062158396568</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>149.9949137375303</v>
       </c>
       <c r="T42" t="n">
         <v>4.669412297158422</v>
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>191.113352178378</v>
+        <v>191.1133521783781</v>
       </c>
       <c r="C44" t="n">
-        <v>174.3820378659256</v>
+        <v>174.3820378659257</v>
       </c>
       <c r="D44" t="n">
         <v>164.0016749415814</v>
       </c>
       <c r="E44" t="n">
-        <v>190.5149779422704</v>
+        <v>190.5149779422705</v>
       </c>
       <c r="F44" t="n">
-        <v>214.6908056675238</v>
+        <v>214.6908056675239</v>
       </c>
       <c r="G44" t="n">
         <v>221.7369835873455</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.532620681485808</v>
+        <v>1.532620681485866</v>
       </c>
       <c r="T44" t="n">
-        <v>28.10885505822037</v>
+        <v>28.10885505822043</v>
       </c>
       <c r="U44" t="n">
-        <v>58.83352784324993</v>
+        <v>58.83352784324998</v>
       </c>
       <c r="V44" t="n">
-        <v>135.9301637095023</v>
+        <v>135.9301637095024</v>
       </c>
       <c r="W44" t="n">
         <v>157.9270591875376</v>
@@ -4065,7 +4065,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>100.8980880080624</v>
       </c>
       <c r="T45" t="n">
-        <v>154.6643260346887</v>
+        <v>197.2724701101754</v>
       </c>
       <c r="U45" t="n">
         <v>224.6390585394848</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>25.73061027514445</v>
+        <v>25.73061027514451</v>
       </c>
       <c r="T46" t="n">
-        <v>34.74288899725293</v>
+        <v>34.74288899725299</v>
       </c>
       <c r="U46" t="n">
-        <v>93.43661871615906</v>
+        <v>93.43661871615912</v>
       </c>
       <c r="V46" t="n">
-        <v>60.33329325392214</v>
+        <v>60.33329325392219</v>
       </c>
       <c r="W46" t="n">
-        <v>93.48951907439852</v>
+        <v>93.48951907439857</v>
       </c>
       <c r="X46" t="n">
-        <v>33.53730211929224</v>
+        <v>33.53730211929229</v>
       </c>
       <c r="Y46" t="n">
-        <v>26.1456160547512</v>
+        <v>26.14561605475126</v>
       </c>
     </row>
   </sheetData>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>159.5254568166754</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="C8" t="n">
-        <v>119.2412505498381</v>
+        <v>66.51300431118504</v>
       </c>
       <c r="D8" t="n">
-        <v>78.95704428300093</v>
+        <v>66.51300431118504</v>
       </c>
       <c r="E8" t="n">
+        <v>66.51300431118504</v>
+      </c>
+      <c r="F8" t="n">
         <v>59.14546544195188</v>
       </c>
-      <c r="F8" t="n">
-        <v>18.86125917511466</v>
-      </c>
       <c r="G8" t="n">
-        <v>3.856445635891503</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="H8" t="n">
         <v>3.856445635891503</v>
@@ -4826,28 +4826,28 @@
         <v>159.5254568166754</v>
       </c>
       <c r="R8" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S8" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T8" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U8" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V8" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W8" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X8" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="Y8" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.95704428300093</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="C9" t="n">
-        <v>78.95704428300093</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="D9" t="n">
-        <v>78.95704428300093</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="E9" t="n">
-        <v>78.95704428300093</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="F9" t="n">
-        <v>78.95704428300093</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="G9" t="n">
         <v>43.47471540317073</v>
       </c>
       <c r="H9" t="n">
-        <v>43.47471540317073</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I9" t="n">
         <v>3.190509136333507</v>
       </c>
       <c r="J9" t="n">
-        <v>3.190509136333507</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K9" t="n">
-        <v>3.190509136333507</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="L9" t="n">
-        <v>3.190509136333507</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="M9" t="n">
-        <v>42.67305969846066</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="N9" t="n">
-        <v>82.15561026058782</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="O9" t="n">
-        <v>82.15561026058782</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="P9" t="n">
-        <v>121.638160822715</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="Q9" t="n">
         <v>159.5254568166754</v>
       </c>
       <c r="R9" t="n">
+        <v>159.5254568166754</v>
+      </c>
+      <c r="S9" t="n">
+        <v>159.5254568166754</v>
+      </c>
+      <c r="T9" t="n">
+        <v>159.5254568166754</v>
+      </c>
+      <c r="U9" t="n">
+        <v>159.5254568166754</v>
+      </c>
+      <c r="V9" t="n">
+        <v>159.5254568166754</v>
+      </c>
+      <c r="W9" t="n">
+        <v>159.5254568166754</v>
+      </c>
+      <c r="X9" t="n">
         <v>119.2412505498381</v>
-      </c>
-      <c r="S9" t="n">
-        <v>119.2412505498381</v>
-      </c>
-      <c r="T9" t="n">
-        <v>78.95704428300093</v>
-      </c>
-      <c r="U9" t="n">
-        <v>78.95704428300093</v>
-      </c>
-      <c r="V9" t="n">
-        <v>78.95704428300093</v>
-      </c>
-      <c r="W9" t="n">
-        <v>78.95704428300093</v>
-      </c>
-      <c r="X9" t="n">
-        <v>78.95704428300093</v>
       </c>
       <c r="Y9" t="n">
         <v>78.95704428300093</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.11415531596316</v>
+        <v>58.39836158280038</v>
       </c>
       <c r="C10" t="n">
-        <v>18.11415531596316</v>
+        <v>58.39836158280038</v>
       </c>
       <c r="D10" t="n">
-        <v>18.11415531596316</v>
+        <v>58.39836158280038</v>
       </c>
       <c r="E10" t="n">
-        <v>18.11415531596316</v>
+        <v>58.39836158280038</v>
       </c>
       <c r="F10" t="n">
         <v>18.11415531596316</v>
@@ -4981,31 +4981,31 @@
         <v>159.5254568166754</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.9667741164748</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="R10" t="n">
+        <v>119.2412505498381</v>
+      </c>
+      <c r="S10" t="n">
+        <v>119.2412505498381</v>
+      </c>
+      <c r="T10" t="n">
+        <v>119.2412505498381</v>
+      </c>
+      <c r="U10" t="n">
+        <v>119.2412505498381</v>
+      </c>
+      <c r="V10" t="n">
         <v>98.68256784963759</v>
       </c>
-      <c r="S10" t="n">
+      <c r="W10" t="n">
         <v>58.39836158280038</v>
       </c>
-      <c r="T10" t="n">
-        <v>18.11415531596316</v>
-      </c>
-      <c r="U10" t="n">
-        <v>18.11415531596316</v>
-      </c>
-      <c r="V10" t="n">
-        <v>18.11415531596316</v>
-      </c>
-      <c r="W10" t="n">
-        <v>18.11415531596316</v>
-      </c>
       <c r="X10" t="n">
-        <v>18.11415531596316</v>
+        <v>58.39836158280038</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.11415531596316</v>
+        <v>58.39836158280038</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1160.125654379638</v>
+        <v>829.6593724840743</v>
       </c>
       <c r="C11" t="n">
-        <v>1160.125654379638</v>
+        <v>829.6593724840743</v>
       </c>
       <c r="D11" t="n">
-        <v>1093.201590318737</v>
+        <v>829.6593724840743</v>
       </c>
       <c r="E11" t="n">
-        <v>829.6593724840739</v>
+        <v>829.6593724840743</v>
       </c>
       <c r="F11" t="n">
-        <v>541.6971266441044</v>
+        <v>541.6971266441047</v>
       </c>
       <c r="G11" t="n">
-        <v>246.6175293699717</v>
+        <v>246.6175293699718</v>
       </c>
       <c r="H11" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="I11" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="J11" t="n">
-        <v>76.42539836894366</v>
+        <v>76.42539836894389</v>
       </c>
       <c r="K11" t="n">
-        <v>262.5438616526803</v>
+        <v>262.5438616526806</v>
       </c>
       <c r="L11" t="n">
-        <v>545.4093511996116</v>
+        <v>545.409351199612</v>
       </c>
       <c r="M11" t="n">
-        <v>875.3640045234894</v>
+        <v>875.3640045234897</v>
       </c>
       <c r="N11" t="n">
         <v>1195.140494102847</v>
@@ -5066,25 +5066,25 @@
         <v>1691.419595333869</v>
       </c>
       <c r="S11" t="n">
-        <v>1691.419595333869</v>
+        <v>1618.768647459595</v>
       </c>
       <c r="T11" t="n">
-        <v>1691.419595333869</v>
+        <v>1519.2730183967</v>
       </c>
       <c r="U11" t="n">
-        <v>1691.419595333869</v>
+        <v>1388.742366318624</v>
       </c>
       <c r="V11" t="n">
-        <v>1691.419595333869</v>
+        <v>1180.336324476656</v>
       </c>
       <c r="W11" t="n">
-        <v>1691.419595333869</v>
+        <v>1180.336324476656</v>
       </c>
       <c r="X11" t="n">
-        <v>1691.419595333869</v>
+        <v>1180.336324476656</v>
       </c>
       <c r="Y11" t="n">
-        <v>1424.272290634612</v>
+        <v>913.1890197773982</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>280.5729463852279</v>
+        <v>449.08462213651</v>
       </c>
       <c r="C12" t="n">
-        <v>231.2655283767128</v>
+        <v>399.7772041279949</v>
       </c>
       <c r="D12" t="n">
-        <v>103.1756182476494</v>
+        <v>252.1888974869387</v>
       </c>
       <c r="E12" t="n">
-        <v>69.01178632017195</v>
+        <v>218.0250655594612</v>
       </c>
       <c r="F12" t="n">
-        <v>47.50169340645664</v>
+        <v>73.06927557607801</v>
       </c>
       <c r="G12" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="H12" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="I12" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="J12" t="n">
-        <v>33.82839190667738</v>
+        <v>66.98092231877615</v>
       </c>
       <c r="K12" t="n">
-        <v>217.0969600705897</v>
+        <v>66.98092231877615</v>
       </c>
       <c r="L12" t="n">
-        <v>524.3737736762287</v>
+        <v>374.2577359244152</v>
       </c>
       <c r="M12" t="n">
-        <v>935.7515159177565</v>
+        <v>785.6354781659429</v>
       </c>
       <c r="N12" t="n">
-        <v>1354.377865762889</v>
+        <v>1204.261828011076</v>
       </c>
       <c r="O12" t="n">
-        <v>1440.785391157491</v>
+        <v>1537.011248008584</v>
       </c>
       <c r="P12" t="n">
-        <v>1691.419595333869</v>
+        <v>1575.43819969408</v>
       </c>
       <c r="Q12" t="n">
         <v>1691.419595333869</v>
       </c>
       <c r="R12" t="n">
-        <v>1691.419595333869</v>
+        <v>1613.039876945816</v>
       </c>
       <c r="S12" t="n">
-        <v>1649.364131211242</v>
+        <v>1447.53871575352</v>
       </c>
       <c r="T12" t="n">
-        <v>1573.5447069575</v>
+        <v>1371.719291499779</v>
       </c>
       <c r="U12" t="n">
-        <v>1346.636567018626</v>
+        <v>1144.811151560905</v>
       </c>
       <c r="V12" t="n">
-        <v>1112.385323544227</v>
+        <v>1034.005605156174</v>
       </c>
       <c r="W12" t="n">
-        <v>859.8708318775604</v>
+        <v>904.9368105591748</v>
       </c>
       <c r="X12" t="n">
-        <v>653.3439332831379</v>
+        <v>821.85560903442</v>
       </c>
       <c r="Y12" t="n">
-        <v>447.6154975067883</v>
+        <v>616.1271732580705</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.1841386362846</v>
+        <v>264.1841386362854</v>
       </c>
       <c r="C13" t="n">
-        <v>218.6030145633239</v>
+        <v>218.6030145633245</v>
       </c>
       <c r="D13" t="n">
-        <v>191.5380383860025</v>
+        <v>191.538038386003</v>
       </c>
       <c r="E13" t="n">
-        <v>166.5245191191055</v>
+        <v>166.5245191191059</v>
       </c>
       <c r="F13" t="n">
-        <v>142.3348410273546</v>
+        <v>142.3348410273549</v>
       </c>
       <c r="G13" t="n">
-        <v>96.42831439787219</v>
+        <v>96.42831439787233</v>
       </c>
       <c r="H13" t="n">
-        <v>58.68080690072196</v>
+        <v>58.680806900722</v>
       </c>
       <c r="I13" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="J13" t="n">
-        <v>83.02756967032965</v>
+        <v>83.02756967032963</v>
       </c>
       <c r="K13" t="n">
-        <v>215.9467083111791</v>
+        <v>215.9467083111789</v>
       </c>
       <c r="L13" t="n">
-        <v>408.0057577934582</v>
+        <v>408.0057577934581</v>
       </c>
       <c r="M13" t="n">
-        <v>614.5210528970197</v>
+        <v>614.5210528970194</v>
       </c>
       <c r="N13" t="n">
-        <v>824.1439887949007</v>
+        <v>824.1439887949002</v>
       </c>
       <c r="O13" t="n">
         <v>1011.664187607628</v>
@@ -5218,31 +5218,31 @@
         <v>1166.359658847678</v>
       </c>
       <c r="Q13" t="n">
-        <v>1227.526033874095</v>
+        <v>1227.526033874094</v>
       </c>
       <c r="R13" t="n">
-        <v>1186.31556173165</v>
+        <v>1186.315561731649</v>
       </c>
       <c r="S13" t="n">
-        <v>1089.222200126408</v>
+        <v>1089.222200126406</v>
       </c>
       <c r="T13" t="n">
-        <v>983.0255266806513</v>
+        <v>983.0255266806498</v>
       </c>
       <c r="U13" t="n">
-        <v>822.7148989900829</v>
+        <v>817.5422575592307</v>
       </c>
       <c r="V13" t="n">
-        <v>690.6693323557718</v>
+        <v>685.4966909249194</v>
       </c>
       <c r="W13" t="n">
-        <v>525.1326285290603</v>
+        <v>525.1326285290614</v>
       </c>
       <c r="X13" t="n">
-        <v>420.1537196064965</v>
+        <v>420.1537196064975</v>
       </c>
       <c r="Y13" t="n">
-        <v>322.6411602440752</v>
+        <v>322.6411602440761</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>988.2417890535103</v>
+        <v>908.963675559236</v>
       </c>
       <c r="C14" t="n">
-        <v>880.4124528554426</v>
+        <v>661.7173567915879</v>
       </c>
       <c r="D14" t="n">
-        <v>880.4124528554426</v>
+        <v>424.9562530990352</v>
       </c>
       <c r="E14" t="n">
-        <v>616.8702350207795</v>
+        <v>392.7152322368071</v>
       </c>
       <c r="F14" t="n">
-        <v>328.9079891808101</v>
+        <v>392.7152322368071</v>
       </c>
       <c r="G14" t="n">
-        <v>33.82839190667739</v>
+        <v>97.63563496267437</v>
       </c>
       <c r="H14" t="n">
-        <v>33.82839190667739</v>
+        <v>97.63563496267437</v>
       </c>
       <c r="I14" t="n">
         <v>33.82839190667739</v>
       </c>
       <c r="J14" t="n">
-        <v>76.42539836894366</v>
+        <v>76.42539836894386</v>
       </c>
       <c r="K14" t="n">
-        <v>262.5438616526802</v>
+        <v>262.5438616526806</v>
       </c>
       <c r="L14" t="n">
-        <v>545.4093511996116</v>
+        <v>545.4093511996119</v>
       </c>
       <c r="M14" t="n">
-        <v>875.3640045234894</v>
+        <v>875.3640045234897</v>
       </c>
       <c r="N14" t="n">
-        <v>1195.140494102847</v>
+        <v>1195.140494102848</v>
       </c>
       <c r="O14" t="n">
-        <v>1450.968014056181</v>
+        <v>1450.968014056182</v>
       </c>
       <c r="P14" t="n">
         <v>1632.37209038949</v>
       </c>
       <c r="Q14" t="n">
-        <v>1691.419595333869</v>
+        <v>1691.41959533387</v>
       </c>
       <c r="R14" t="n">
         <v>1691.419595333869</v>
@@ -5312,16 +5312,16 @@
         <v>1691.419595333869</v>
       </c>
       <c r="V14" t="n">
-        <v>1483.013553491902</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="W14" t="n">
-        <v>1252.388425308484</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="X14" t="n">
-        <v>1252.388425308484</v>
+        <v>1440.257616513467</v>
       </c>
       <c r="Y14" t="n">
-        <v>1252.388425308484</v>
+        <v>1173.11031181421</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>527.4643405245637</v>
+        <v>280.5729463852281</v>
       </c>
       <c r="C15" t="n">
-        <v>354.7112254463809</v>
+        <v>127.3182278190379</v>
       </c>
       <c r="D15" t="n">
-        <v>330.5686158749925</v>
+        <v>103.1756182476496</v>
       </c>
       <c r="E15" t="n">
-        <v>296.4047839475151</v>
+        <v>69.01178632017205</v>
       </c>
       <c r="F15" t="n">
-        <v>151.4489939641319</v>
+        <v>47.50169340645669</v>
       </c>
       <c r="G15" t="n">
-        <v>137.7756924643526</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="H15" t="n">
         <v>33.82839190667739</v>
@@ -5388,19 +5388,19 @@
         <v>1573.5447069575</v>
       </c>
       <c r="U15" t="n">
-        <v>1470.082264088294</v>
+        <v>1346.636567018626</v>
       </c>
       <c r="V15" t="n">
-        <v>1235.831020613895</v>
+        <v>1112.385323544227</v>
       </c>
       <c r="W15" t="n">
-        <v>1106.762226016896</v>
+        <v>859.8708318775606</v>
       </c>
       <c r="X15" t="n">
-        <v>900.2353274224737</v>
+        <v>653.3439332831381</v>
       </c>
       <c r="Y15" t="n">
-        <v>694.5068916461241</v>
+        <v>447.6154975067885</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.1841386362843</v>
+        <v>264.1841386362851</v>
       </c>
       <c r="C16" t="n">
-        <v>218.6030145633235</v>
+        <v>218.6030145633242</v>
       </c>
       <c r="D16" t="n">
-        <v>191.538038386002</v>
+        <v>191.5380383860027</v>
       </c>
       <c r="E16" t="n">
-        <v>166.524519119105</v>
+        <v>166.5245191191057</v>
       </c>
       <c r="F16" t="n">
-        <v>142.3348410273539</v>
+        <v>142.3348410273548</v>
       </c>
       <c r="G16" t="n">
-        <v>96.42831439787219</v>
+        <v>96.42831439787221</v>
       </c>
       <c r="H16" t="n">
-        <v>58.68080690072193</v>
+        <v>58.68080690072195</v>
       </c>
       <c r="I16" t="n">
         <v>33.82839190667739</v>
       </c>
       <c r="J16" t="n">
-        <v>83.02756967032965</v>
+        <v>83.02756967032963</v>
       </c>
       <c r="K16" t="n">
         <v>215.946708311179</v>
       </c>
       <c r="L16" t="n">
-        <v>408.0057577934581</v>
+        <v>408.0057577934582</v>
       </c>
       <c r="M16" t="n">
-        <v>614.5210528970197</v>
+        <v>614.5210528970196</v>
       </c>
       <c r="N16" t="n">
-        <v>824.1439887949005</v>
+        <v>824.1439887949003</v>
       </c>
       <c r="O16" t="n">
         <v>1011.664187607628</v>
@@ -5464,22 +5464,22 @@
         <v>1089.222200126407</v>
       </c>
       <c r="T16" t="n">
-        <v>983.0255266806508</v>
+        <v>983.025526680651</v>
       </c>
       <c r="U16" t="n">
-        <v>822.7148989900829</v>
+        <v>817.5422575592318</v>
       </c>
       <c r="V16" t="n">
-        <v>690.6693323557718</v>
+        <v>685.4966909249206</v>
       </c>
       <c r="W16" t="n">
-        <v>525.1326285290601</v>
+        <v>525.1326285290606</v>
       </c>
       <c r="X16" t="n">
-        <v>420.1537196064963</v>
+        <v>420.153719606497</v>
       </c>
       <c r="Y16" t="n">
-        <v>322.641160244075</v>
+        <v>322.6411602440757</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>958.3054331173556</v>
+        <v>958.305433117356</v>
       </c>
       <c r="C17" t="n">
-        <v>814.2097109599713</v>
+        <v>814.2097109599717</v>
       </c>
       <c r="D17" t="n">
-        <v>680.5992038776823</v>
+        <v>680.5992038776826</v>
       </c>
       <c r="E17" t="n">
-        <v>520.207582653283</v>
+        <v>520.2075826532832</v>
       </c>
       <c r="F17" t="n">
-        <v>335.3959334235772</v>
+        <v>335.3959334235774</v>
       </c>
       <c r="G17" t="n">
         <v>143.4669327597081</v>
@@ -5513,34 +5513,34 @@
         <v>33.82839190667739</v>
       </c>
       <c r="J17" t="n">
-        <v>76.42539836894386</v>
+        <v>76.42539836894389</v>
       </c>
       <c r="K17" t="n">
         <v>262.5438616526806</v>
       </c>
       <c r="L17" t="n">
-        <v>545.4093511996119</v>
+        <v>545.409351199612</v>
       </c>
       <c r="M17" t="n">
         <v>875.3640045234897</v>
       </c>
       <c r="N17" t="n">
-        <v>1195.140494102848</v>
+        <v>1195.140494102847</v>
       </c>
       <c r="O17" t="n">
-        <v>1450.968014056182</v>
+        <v>1450.968014056181</v>
       </c>
       <c r="P17" t="n">
         <v>1632.37209038949</v>
       </c>
       <c r="Q17" t="n">
-        <v>1691.41959533387</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="R17" t="n">
-        <v>1691.41959533387</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="S17" t="n">
-        <v>1691.41959533387</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="T17" t="n">
         <v>1691.419595333869</v>
@@ -5555,7 +5555,7 @@
         <v>1431.309563061198</v>
       </c>
       <c r="X17" t="n">
-        <v>1283.298180851059</v>
+        <v>1283.29818085106</v>
       </c>
       <c r="Y17" t="n">
         <v>1119.301472762066</v>
@@ -5595,22 +5595,22 @@
         <v>33.82839190667739</v>
       </c>
       <c r="K18" t="n">
-        <v>33.82839190667739</v>
+        <v>217.0969600705897</v>
       </c>
       <c r="L18" t="n">
-        <v>341.1052055123164</v>
+        <v>524.3737736762287</v>
       </c>
       <c r="M18" t="n">
-        <v>752.4829477538442</v>
+        <v>935.7515159177565</v>
       </c>
       <c r="N18" t="n">
-        <v>1171.109297598977</v>
+        <v>1354.377865762889</v>
       </c>
       <c r="O18" t="n">
-        <v>1440.785391157491</v>
+        <v>1575.43819969408</v>
       </c>
       <c r="P18" t="n">
-        <v>1691.419595333869</v>
+        <v>1575.43819969408</v>
       </c>
       <c r="Q18" t="n">
         <v>1691.419595333869</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.82839190667739</v>
+        <v>1334.022272344409</v>
       </c>
       <c r="C19" t="n">
-        <v>33.82839190667739</v>
+        <v>1334.022272344409</v>
       </c>
       <c r="D19" t="n">
-        <v>33.82839190667739</v>
+        <v>1334.022272344409</v>
       </c>
       <c r="E19" t="n">
-        <v>33.82839190667739</v>
+        <v>1334.022272344409</v>
       </c>
       <c r="F19" t="n">
-        <v>33.82839190667739</v>
+        <v>1334.022272344409</v>
       </c>
       <c r="G19" t="n">
-        <v>33.82839190667739</v>
+        <v>1334.022272344409</v>
       </c>
       <c r="H19" t="n">
-        <v>33.82839190667739</v>
+        <v>1334.022272344409</v>
       </c>
       <c r="I19" t="n">
-        <v>33.82839190667739</v>
+        <v>1334.022272344409</v>
       </c>
       <c r="J19" t="n">
-        <v>33.82839190667739</v>
+        <v>1334.022272344409</v>
       </c>
       <c r="K19" t="n">
-        <v>45.75840284954536</v>
+        <v>1345.952283287277</v>
       </c>
       <c r="L19" t="n">
-        <v>116.8283246338432</v>
+        <v>1417.022205071575</v>
       </c>
       <c r="M19" t="n">
-        <v>202.3544920394233</v>
+        <v>1502.548372477155</v>
       </c>
       <c r="N19" t="n">
-        <v>290.9883002393227</v>
+        <v>1591.182180677055</v>
       </c>
       <c r="O19" t="n">
-        <v>357.5193713540688</v>
+        <v>1657.713251791801</v>
       </c>
       <c r="P19" t="n">
-        <v>391.2257148961375</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="Q19" t="n">
-        <v>391.2257148961375</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="R19" t="n">
-        <v>391.2257148961375</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="S19" t="n">
-        <v>192.3165308061212</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="T19" t="n">
-        <v>189.2704539706284</v>
+        <v>1688.373518498377</v>
       </c>
       <c r="U19" t="n">
-        <v>126.9377814594729</v>
+        <v>1626.040845987221</v>
       </c>
       <c r="V19" t="n">
-        <v>98.04281143542541</v>
+        <v>1597.145875963173</v>
       </c>
       <c r="W19" t="n">
-        <v>35.65670421897752</v>
+        <v>1534.759768746726</v>
       </c>
       <c r="X19" t="n">
-        <v>33.82839190667739</v>
+        <v>1532.931456434425</v>
       </c>
       <c r="Y19" t="n">
-        <v>33.82839190667739</v>
+        <v>1334.022272344409</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>958.305433117356</v>
+        <v>958.3054331173556</v>
       </c>
       <c r="C20" t="n">
-        <v>814.2097109599716</v>
+        <v>814.2097109599713</v>
       </c>
       <c r="D20" t="n">
-        <v>680.5992038776825</v>
+        <v>680.5992038776822</v>
       </c>
       <c r="E20" t="n">
-        <v>520.2075826532831</v>
+        <v>520.2075826532828</v>
       </c>
       <c r="F20" t="n">
-        <v>335.3959334235773</v>
+        <v>335.395933423577</v>
       </c>
       <c r="G20" t="n">
         <v>143.4669327597081</v>
@@ -5750,28 +5750,28 @@
         <v>33.82839190667739</v>
       </c>
       <c r="J20" t="n">
-        <v>76.42539836894377</v>
+        <v>76.42539836894386</v>
       </c>
       <c r="K20" t="n">
-        <v>262.5438616526805</v>
+        <v>262.5438616526806</v>
       </c>
       <c r="L20" t="n">
-        <v>545.4093511996118</v>
+        <v>545.4093511996119</v>
       </c>
       <c r="M20" t="n">
-        <v>875.3640045234895</v>
+        <v>875.3640045234897</v>
       </c>
       <c r="N20" t="n">
-        <v>1195.140494102847</v>
+        <v>1195.140494102848</v>
       </c>
       <c r="O20" t="n">
-        <v>1450.968014056181</v>
+        <v>1450.968014056182</v>
       </c>
       <c r="P20" t="n">
         <v>1632.37209038949</v>
       </c>
       <c r="Q20" t="n">
-        <v>1691.419595333869</v>
+        <v>1691.41959533387</v>
       </c>
       <c r="R20" t="n">
         <v>1691.419595333869</v>
@@ -5792,7 +5792,7 @@
         <v>1431.309563061198</v>
       </c>
       <c r="X20" t="n">
-        <v>1283.29818085106</v>
+        <v>1283.298180851059</v>
       </c>
       <c r="Y20" t="n">
         <v>1119.301472762066</v>
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>499.1256036092995</v>
+        <v>398.4478347615975</v>
       </c>
       <c r="C21" t="n">
-        <v>326.3724885311167</v>
+        <v>225.6947196834147</v>
       </c>
       <c r="D21" t="n">
-        <v>178.7841818900605</v>
+        <v>78.10641304235855</v>
       </c>
       <c r="E21" t="n">
-        <v>178.7841818900605</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="F21" t="n">
         <v>33.82839190667739</v>
@@ -5832,7 +5832,7 @@
         <v>33.82839190667739</v>
       </c>
       <c r="K21" t="n">
-        <v>33.82839190667739</v>
+        <v>217.0969600705897</v>
       </c>
       <c r="L21" t="n">
         <v>278.0318790733225</v>
@@ -5862,19 +5862,19 @@
         <v>1691.419595333869</v>
       </c>
       <c r="U21" t="n">
-        <v>1565.189224242698</v>
+        <v>1464.511455394996</v>
       </c>
       <c r="V21" t="n">
-        <v>1330.937980768299</v>
+        <v>1230.260211920597</v>
       </c>
       <c r="W21" t="n">
-        <v>1078.423489101632</v>
+        <v>977.74572025393</v>
       </c>
       <c r="X21" t="n">
-        <v>871.8965905072095</v>
+        <v>771.2188216595075</v>
       </c>
       <c r="Y21" t="n">
-        <v>666.1681547308599</v>
+        <v>565.490385883158</v>
       </c>
     </row>
     <row r="22">
@@ -5911,7 +5911,7 @@
         <v>33.82839190667739</v>
       </c>
       <c r="K22" t="n">
-        <v>45.75840284954537</v>
+        <v>45.75840284954536</v>
       </c>
       <c r="L22" t="n">
         <v>116.8283246338432</v>
@@ -5923,19 +5923,19 @@
         <v>290.9883002393227</v>
       </c>
       <c r="O22" t="n">
-        <v>357.5193713540689</v>
+        <v>357.5193713540688</v>
       </c>
       <c r="P22" t="n">
-        <v>391.2257148961376</v>
+        <v>391.2257148961375</v>
       </c>
       <c r="Q22" t="n">
-        <v>391.2257148961376</v>
+        <v>391.2257148961375</v>
       </c>
       <c r="R22" t="n">
-        <v>226.5695456840251</v>
+        <v>391.2257148961375</v>
       </c>
       <c r="S22" t="n">
-        <v>226.5695456840251</v>
+        <v>391.2257148961375</v>
       </c>
       <c r="T22" t="n">
         <v>189.2704539706284</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>958.3054331173556</v>
+        <v>958.3054331173561</v>
       </c>
       <c r="C23" t="n">
-        <v>814.2097109599713</v>
+        <v>814.2097109599717</v>
       </c>
       <c r="D23" t="n">
-        <v>680.5992038776822</v>
+        <v>680.5992038776825</v>
       </c>
       <c r="E23" t="n">
-        <v>520.2075826532828</v>
+        <v>520.2075826532831</v>
       </c>
       <c r="F23" t="n">
-        <v>335.3959334235769</v>
+        <v>335.3959334235773</v>
       </c>
       <c r="G23" t="n">
         <v>143.4669327597081</v>
       </c>
       <c r="H23" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="I23" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="J23" t="n">
         <v>76.42539836894386</v>
@@ -6011,16 +6011,16 @@
         <v>1691.41959533387</v>
       </c>
       <c r="R23" t="n">
-        <v>1691.419595333869</v>
+        <v>1691.41959533387</v>
       </c>
       <c r="S23" t="n">
-        <v>1691.419595333869</v>
+        <v>1691.41959533387</v>
       </c>
       <c r="T23" t="n">
         <v>1691.419595333869</v>
       </c>
       <c r="U23" t="n">
-        <v>1664.039539866056</v>
+        <v>1664.039539866057</v>
       </c>
       <c r="V23" t="n">
         <v>1558.784094634352</v>
@@ -6029,7 +6029,7 @@
         <v>1431.309563061198</v>
       </c>
       <c r="X23" t="n">
-        <v>1283.298180851059</v>
+        <v>1283.29818085106</v>
       </c>
       <c r="Y23" t="n">
         <v>1119.301472762066</v>
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>398.4478347615971</v>
+        <v>656.7351326064447</v>
       </c>
       <c r="C24" t="n">
-        <v>225.6947196834142</v>
+        <v>483.982017528262</v>
       </c>
       <c r="D24" t="n">
-        <v>78.1064130423581</v>
+        <v>336.3937108872058</v>
       </c>
       <c r="E24" t="n">
-        <v>78.1064130423581</v>
+        <v>178.7841818900605</v>
       </c>
       <c r="F24" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="G24" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="H24" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="I24" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="J24" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="K24" t="n">
-        <v>33.82839190667738</v>
+        <v>217.0969600705897</v>
       </c>
       <c r="L24" t="n">
-        <v>278.031879073322</v>
+        <v>524.3737736762287</v>
       </c>
       <c r="M24" t="n">
-        <v>689.4096213148498</v>
+        <v>935.7515159177565</v>
       </c>
       <c r="N24" t="n">
-        <v>1108.035971159982</v>
+        <v>1108.035971159983</v>
       </c>
       <c r="O24" t="n">
-        <v>1440.78539115749</v>
+        <v>1440.785391157491</v>
       </c>
       <c r="P24" t="n">
         <v>1691.419595333869</v>
@@ -6099,19 +6099,19 @@
         <v>1691.419595333869</v>
       </c>
       <c r="U24" t="n">
-        <v>1464.511455394995</v>
+        <v>1691.107749074927</v>
       </c>
       <c r="V24" t="n">
-        <v>1230.260211920596</v>
+        <v>1488.547509765444</v>
       </c>
       <c r="W24" t="n">
-        <v>977.7457202539296</v>
+        <v>1236.033018098777</v>
       </c>
       <c r="X24" t="n">
-        <v>771.2188216595071</v>
+        <v>1029.506119504355</v>
       </c>
       <c r="Y24" t="n">
-        <v>565.4903858831575</v>
+        <v>823.7776837280052</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="C25" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="D25" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="E25" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="F25" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="G25" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="H25" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="I25" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="J25" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="K25" t="n">
         <v>45.75840284954536</v>
@@ -6172,7 +6172,7 @@
         <v>391.2257148961375</v>
       </c>
       <c r="S25" t="n">
-        <v>391.2257148961375</v>
+        <v>192.3165308061212</v>
       </c>
       <c r="T25" t="n">
         <v>189.2704539706284</v>
@@ -6181,16 +6181,16 @@
         <v>126.9377814594729</v>
       </c>
       <c r="V25" t="n">
-        <v>98.04281143542539</v>
+        <v>98.04281143542541</v>
       </c>
       <c r="W25" t="n">
-        <v>35.65670421897751</v>
+        <v>35.65670421897752</v>
       </c>
       <c r="X25" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="Y25" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667739</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>834.3725036288843</v>
       </c>
       <c r="F26" t="n">
-        <v>567.1181841536753</v>
+        <v>567.1181841536752</v>
       </c>
       <c r="G26" t="n">
-        <v>292.7465132443031</v>
+        <v>292.7465132443034</v>
       </c>
       <c r="H26" t="n">
         <v>100.6653021457695</v>
@@ -6224,25 +6224,25 @@
         <v>57.56598545453296</v>
       </c>
       <c r="J26" t="n">
-        <v>241.4479582448823</v>
+        <v>241.4479582448826</v>
       </c>
       <c r="K26" t="n">
-        <v>568.8513878567021</v>
+        <v>568.8513878567023</v>
       </c>
       <c r="L26" t="n">
-        <v>993.0018437317167</v>
+        <v>993.0018437317166</v>
       </c>
       <c r="M26" t="n">
         <v>1464.241463383677</v>
       </c>
       <c r="N26" t="n">
-        <v>1925.302919291118</v>
+        <v>1925.302919291119</v>
       </c>
       <c r="O26" t="n">
-        <v>2322.415405572535</v>
+        <v>2322.415405572536</v>
       </c>
       <c r="P26" t="n">
-        <v>2645.104448233927</v>
+        <v>2645.104448233928</v>
       </c>
       <c r="Q26" t="n">
         <v>2845.43691950639</v>
@@ -6251,7 +6251,7 @@
         <v>2878.299272726648</v>
       </c>
       <c r="S26" t="n">
-        <v>2826.356251217134</v>
+        <v>2826.356251217135</v>
       </c>
       <c r="T26" t="n">
         <v>2747.568548519</v>
@@ -6263,7 +6263,7 @@
         <v>2450.047707328476</v>
       </c>
       <c r="W26" t="n">
-        <v>2240.130505509818</v>
+        <v>2240.130505509819</v>
       </c>
       <c r="X26" t="n">
         <v>2009.676453054177</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>760.2402824616829</v>
+        <v>680.4727261543004</v>
       </c>
       <c r="C27" t="n">
-        <v>587.4871673835</v>
+        <v>507.7196110761176</v>
       </c>
       <c r="D27" t="n">
-        <v>439.8988607424439</v>
+        <v>360.1313044350615</v>
       </c>
       <c r="E27" t="n">
-        <v>282.2893317452986</v>
+        <v>202.5217754379161</v>
       </c>
       <c r="F27" t="n">
-        <v>137.3335417619154</v>
+        <v>57.56598545453296</v>
       </c>
       <c r="G27" t="n">
         <v>57.56598545453296</v>
@@ -6303,16 +6303,16 @@
         <v>57.56598545453296</v>
       </c>
       <c r="J27" t="n">
-        <v>90.71851586663172</v>
+        <v>90.71851586663173</v>
       </c>
       <c r="K27" t="n">
-        <v>273.987084030544</v>
+        <v>273.9870840305441</v>
       </c>
       <c r="L27" t="n">
-        <v>581.2638976361829</v>
+        <v>581.2638976361831</v>
       </c>
       <c r="M27" t="n">
-        <v>992.6416398777106</v>
+        <v>992.6416398777108</v>
       </c>
       <c r="N27" t="n">
         <v>1430.306058867128</v>
@@ -6333,22 +6333,22 @@
         <v>2108.323540922936</v>
       </c>
       <c r="T27" t="n">
-        <v>2053.212043033955</v>
+        <v>1973.444486726572</v>
       </c>
       <c r="U27" t="n">
-        <v>1826.303903095082</v>
+        <v>1746.536346787699</v>
       </c>
       <c r="V27" t="n">
-        <v>1592.052659620682</v>
+        <v>1512.2851033133</v>
       </c>
       <c r="W27" t="n">
-        <v>1339.538167954016</v>
+        <v>1259.770611646633</v>
       </c>
       <c r="X27" t="n">
-        <v>1133.011269359593</v>
+        <v>1053.24371305221</v>
       </c>
       <c r="Y27" t="n">
-        <v>927.2828335832434</v>
+        <v>847.5152772758609</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.9662476308172</v>
+        <v>142.9662476308174</v>
       </c>
       <c r="C28" t="n">
-        <v>118.0930499226169</v>
+        <v>118.093049922617</v>
       </c>
       <c r="D28" t="n">
-        <v>111.7360001100559</v>
+        <v>111.736000110056</v>
       </c>
       <c r="E28" t="n">
-        <v>107.4304072079193</v>
+        <v>107.4304072079194</v>
       </c>
       <c r="F28" t="n">
         <v>103.9486554809289</v>
       </c>
       <c r="G28" t="n">
-        <v>78.7500552162068</v>
+        <v>78.75005521620686</v>
       </c>
       <c r="H28" t="n">
-        <v>61.71047408381703</v>
+        <v>61.71047408381706</v>
       </c>
       <c r="I28" t="n">
         <v>57.56598545453296</v>
@@ -6391,43 +6391,43 @@
         <v>492.630867231619</v>
       </c>
       <c r="M28" t="n">
-        <v>594.9532578318373</v>
+        <v>594.9532578318376</v>
       </c>
       <c r="N28" t="n">
-        <v>683.5870660317366</v>
+        <v>824.8720323598201</v>
       </c>
       <c r="O28" t="n">
-        <v>891.4031034745659</v>
+        <v>891.4031034745663</v>
       </c>
       <c r="P28" t="n">
-        <v>925.1094470166346</v>
+        <v>925.1094470166349</v>
       </c>
       <c r="Q28" t="n">
-        <v>925.1094470166346</v>
+        <v>925.1094470166349</v>
       </c>
       <c r="R28" t="n">
-        <v>904.6069012389503</v>
+        <v>904.6069012389506</v>
       </c>
       <c r="S28" t="n">
-        <v>828.2214659984679</v>
+        <v>828.2214659984683</v>
       </c>
       <c r="T28" t="n">
-        <v>742.732718917472</v>
+        <v>742.7327189174723</v>
       </c>
       <c r="U28" t="n">
-        <v>597.9573761608133</v>
+        <v>597.9573761608136</v>
       </c>
       <c r="V28" t="n">
-        <v>486.6197358912626</v>
+        <v>486.6197358912629</v>
       </c>
       <c r="W28" t="n">
-        <v>341.7909584293116</v>
+        <v>341.7909584293118</v>
       </c>
       <c r="X28" t="n">
-        <v>257.5199758715082</v>
+        <v>257.5199758715084</v>
       </c>
       <c r="Y28" t="n">
-        <v>180.7153428738474</v>
+        <v>180.7153428738476</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>1519.798364829467</v>
       </c>
       <c r="C29" t="n">
-        <v>1293.25997242658</v>
+        <v>1293.259972426579</v>
       </c>
       <c r="D29" t="n">
         <v>1077.206795098787</v>
       </c>
       <c r="E29" t="n">
-        <v>834.3725036288847</v>
+        <v>834.3725036288845</v>
       </c>
       <c r="F29" t="n">
-        <v>567.1181841536757</v>
+        <v>567.1181841536754</v>
       </c>
       <c r="G29" t="n">
-        <v>292.7465132443033</v>
+        <v>292.7465132443031</v>
       </c>
       <c r="H29" t="n">
         <v>100.6653021457695</v>
@@ -6461,25 +6461,25 @@
         <v>57.56598545453298</v>
       </c>
       <c r="J29" t="n">
-        <v>241.4479582448821</v>
+        <v>241.4479582448826</v>
       </c>
       <c r="K29" t="n">
-        <v>568.8513878567019</v>
+        <v>568.8513878567023</v>
       </c>
       <c r="L29" t="n">
-        <v>993.0018437317165</v>
+        <v>993.0018437317168</v>
       </c>
       <c r="M29" t="n">
-        <v>1464.241463383677</v>
+        <v>1464.241463383678</v>
       </c>
       <c r="N29" t="n">
-        <v>1925.302919291118</v>
+        <v>1925.302919291119</v>
       </c>
       <c r="O29" t="n">
-        <v>2322.415405572535</v>
+        <v>2322.415405572536</v>
       </c>
       <c r="P29" t="n">
-        <v>2645.104448233927</v>
+        <v>2645.104448233928</v>
       </c>
       <c r="Q29" t="n">
         <v>2845.43691950639</v>
@@ -6488,7 +6488,7 @@
         <v>2878.299272726649</v>
       </c>
       <c r="S29" t="n">
-        <v>2826.356251217134</v>
+        <v>2826.356251217135</v>
       </c>
       <c r="T29" t="n">
         <v>2747.568548519</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>760.2402824616829</v>
+        <v>817.5917247237476</v>
       </c>
       <c r="C30" t="n">
-        <v>587.4871673835</v>
+        <v>644.8386096455647</v>
       </c>
       <c r="D30" t="n">
-        <v>439.8988607424439</v>
+        <v>497.2503030045085</v>
       </c>
       <c r="E30" t="n">
-        <v>282.2893317452986</v>
+        <v>339.6407740073632</v>
       </c>
       <c r="F30" t="n">
-        <v>137.3335417619154</v>
+        <v>194.6849840239801</v>
       </c>
       <c r="G30" t="n">
         <v>57.56598545453298</v>
@@ -6546,10 +6546,10 @@
         <v>273.9870840305441</v>
       </c>
       <c r="L30" t="n">
-        <v>581.2638976361831</v>
+        <v>581.2638976361832</v>
       </c>
       <c r="M30" t="n">
-        <v>992.6416398777108</v>
+        <v>992.641639877711</v>
       </c>
       <c r="N30" t="n">
         <v>1430.306058867128</v>
@@ -6558,13 +6558,13 @@
         <v>1763.055478864636</v>
       </c>
       <c r="P30" t="n">
-        <v>2013.689683041014</v>
+        <v>2013.689683041015</v>
       </c>
       <c r="Q30" t="n">
-        <v>2129.671078680803</v>
+        <v>2129.671078680804</v>
       </c>
       <c r="R30" t="n">
-        <v>2129.671078680803</v>
+        <v>2129.671078680804</v>
       </c>
       <c r="S30" t="n">
         <v>2108.323540922936</v>
@@ -6573,19 +6573,19 @@
         <v>2053.212043033955</v>
       </c>
       <c r="U30" t="n">
-        <v>1826.303903095082</v>
+        <v>1883.655345357146</v>
       </c>
       <c r="V30" t="n">
-        <v>1592.052659620682</v>
+        <v>1649.404101882747</v>
       </c>
       <c r="W30" t="n">
-        <v>1339.538167954016</v>
+        <v>1396.88961021608</v>
       </c>
       <c r="X30" t="n">
-        <v>1133.011269359593</v>
+        <v>1190.362711621658</v>
       </c>
       <c r="Y30" t="n">
-        <v>927.2828335832434</v>
+        <v>984.634275845308</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>142.9662476308172</v>
+        <v>142.9662476308176</v>
       </c>
       <c r="C31" t="n">
-        <v>118.0930499226169</v>
+        <v>118.0930499226172</v>
       </c>
       <c r="D31" t="n">
-        <v>111.7360001100559</v>
+        <v>111.7360001100562</v>
       </c>
       <c r="E31" t="n">
-        <v>107.4304072079193</v>
+        <v>107.4304072079195</v>
       </c>
       <c r="F31" t="n">
-        <v>103.9486554809289</v>
+        <v>103.948655480929</v>
       </c>
       <c r="G31" t="n">
-        <v>78.75005521620682</v>
+        <v>78.75005521620693</v>
       </c>
       <c r="H31" t="n">
-        <v>61.71047408381705</v>
+        <v>61.7104740838171</v>
       </c>
       <c r="I31" t="n">
         <v>57.56598545453298</v>
       </c>
       <c r="J31" t="n">
-        <v>127.061001848287</v>
+        <v>57.56598545453298</v>
       </c>
       <c r="K31" t="n">
-        <v>280.2759791192381</v>
+        <v>210.780962725484</v>
       </c>
       <c r="L31" t="n">
-        <v>492.630867231619</v>
+        <v>281.8508845097819</v>
       </c>
       <c r="M31" t="n">
-        <v>719.4420009652822</v>
+        <v>508.6620182434451</v>
       </c>
       <c r="N31" t="n">
-        <v>824.8720323598197</v>
+        <v>597.2958264433445</v>
       </c>
       <c r="O31" t="n">
-        <v>891.4031034745659</v>
+        <v>668.6559234899653</v>
       </c>
       <c r="P31" t="n">
-        <v>925.1094470166346</v>
+        <v>843.6472333601171</v>
       </c>
       <c r="Q31" t="n">
-        <v>925.1094470166346</v>
+        <v>925.1094470166355</v>
       </c>
       <c r="R31" t="n">
-        <v>904.6069012389503</v>
+        <v>904.6069012389512</v>
       </c>
       <c r="S31" t="n">
-        <v>828.2214659984679</v>
+        <v>828.2214659984688</v>
       </c>
       <c r="T31" t="n">
-        <v>742.732718917472</v>
+        <v>742.7327189174728</v>
       </c>
       <c r="U31" t="n">
-        <v>597.9573761608133</v>
+        <v>597.9573761608141</v>
       </c>
       <c r="V31" t="n">
-        <v>486.6197358912626</v>
+        <v>486.6197358912633</v>
       </c>
       <c r="W31" t="n">
-        <v>341.7909584293116</v>
+        <v>341.7909584293121</v>
       </c>
       <c r="X31" t="n">
-        <v>257.5199758715082</v>
+        <v>257.5199758715087</v>
       </c>
       <c r="Y31" t="n">
-        <v>180.7153428738474</v>
+        <v>180.7153428738478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1443.651546775641</v>
+        <v>1443.65154677564</v>
       </c>
       <c r="C32" t="n">
-        <v>1227.53548421811</v>
+        <v>1227.535484218109</v>
       </c>
       <c r="D32" t="n">
-        <v>1021.904636735674</v>
+        <v>1021.904636735673</v>
       </c>
       <c r="E32" t="n">
-        <v>789.492675111127</v>
+        <v>789.4926751111263</v>
       </c>
       <c r="F32" t="n">
-        <v>532.6606854812742</v>
+        <v>532.6606854812735</v>
       </c>
       <c r="G32" t="n">
-        <v>268.7113444172577</v>
+        <v>268.7113444172574</v>
       </c>
       <c r="H32" t="n">
-        <v>87.05246316407988</v>
+        <v>87.05246316407985</v>
       </c>
       <c r="I32" t="n">
         <v>54.37547631819947</v>
@@ -6701,19 +6701,19 @@
         <v>248.4723745899826</v>
       </c>
       <c r="K32" t="n">
-        <v>586.0907296832358</v>
+        <v>434.5908378737193</v>
       </c>
       <c r="L32" t="n">
-        <v>868.9562192301672</v>
+        <v>772.1868340264406</v>
       </c>
       <c r="M32" t="n">
-        <v>1350.410764363562</v>
+        <v>1253.641379159835</v>
       </c>
       <c r="N32" t="n">
-        <v>1821.687145752436</v>
+        <v>1724.91776054871</v>
       </c>
       <c r="O32" t="n">
-        <v>2229.014557515286</v>
+        <v>2132.24517231156</v>
       </c>
       <c r="P32" t="n">
         <v>2465.149140454385</v>
@@ -6731,19 +6731,19 @@
         <v>2608.887751393037</v>
       </c>
       <c r="U32" t="n">
-        <v>2509.487355525077</v>
+        <v>2509.487355525076</v>
       </c>
       <c r="V32" t="n">
-        <v>2332.211569893226</v>
+        <v>2332.211569893225</v>
       </c>
       <c r="W32" t="n">
-        <v>2132.716697919925</v>
+        <v>2132.716697919924</v>
       </c>
       <c r="X32" t="n">
-        <v>1912.684975309639</v>
+        <v>1912.684975309638</v>
       </c>
       <c r="Y32" t="n">
-        <v>1676.667926820498</v>
+        <v>1676.667926820497</v>
       </c>
     </row>
     <row r="33">
@@ -6783,19 +6783,19 @@
         <v>270.7965748942106</v>
       </c>
       <c r="L33" t="n">
-        <v>578.0733884998496</v>
+        <v>578.0733884998497</v>
       </c>
       <c r="M33" t="n">
-        <v>989.4511307413773</v>
+        <v>989.4511307413775</v>
       </c>
       <c r="N33" t="n">
-        <v>1427.115549730794</v>
+        <v>1427.115549730795</v>
       </c>
       <c r="O33" t="n">
-        <v>1759.864969728302</v>
+        <v>1759.864969728303</v>
       </c>
       <c r="P33" t="n">
-        <v>2010.49917390468</v>
+        <v>2010.499173904681</v>
       </c>
       <c r="Q33" t="n">
         <v>2126.48056954447</v>
@@ -6804,10 +6804,10 @@
         <v>2126.48056954447</v>
       </c>
       <c r="S33" t="n">
-        <v>2115.555361631958</v>
+        <v>2115.555361631959</v>
       </c>
       <c r="T33" t="n">
-        <v>1916.290240308549</v>
+        <v>1970.253977590239</v>
       </c>
       <c r="U33" t="n">
         <v>1743.345837651365</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>90.2198658874434</v>
+        <v>90.21986588744332</v>
       </c>
       <c r="C34" t="n">
-        <v>75.76899802459913</v>
+        <v>75.76899802459907</v>
       </c>
       <c r="D34" t="n">
-        <v>75.76899802459913</v>
+        <v>75.76899802459907</v>
       </c>
       <c r="E34" t="n">
-        <v>75.76899802459913</v>
+        <v>75.76899802459907</v>
       </c>
       <c r="F34" t="n">
-        <v>75.76899802459913</v>
+        <v>75.76899802459907</v>
       </c>
       <c r="G34" t="n">
-        <v>60.99272760523316</v>
+        <v>60.99272760523313</v>
       </c>
       <c r="H34" t="n">
         <v>54.37547631819947</v>
@@ -6856,52 +6856,52 @@
         <v>54.37547631819947</v>
       </c>
       <c r="J34" t="n">
-        <v>134.085418193387</v>
+        <v>54.37547631819947</v>
       </c>
       <c r="K34" t="n">
-        <v>281.5948928089474</v>
+        <v>66.30548726106746</v>
       </c>
       <c r="L34" t="n">
-        <v>504.1647064027619</v>
+        <v>260.9876754552924</v>
       </c>
       <c r="M34" t="n">
-        <v>589.690873808342</v>
+        <v>498.0137346703892</v>
       </c>
       <c r="N34" t="n">
-        <v>678.3246820082413</v>
+        <v>586.6475428702886</v>
       </c>
       <c r="O34" t="n">
-        <v>744.8557531229874</v>
+        <v>653.1786139850348</v>
       </c>
       <c r="P34" t="n">
-        <v>778.5620966650561</v>
+        <v>686.8849575271034</v>
       </c>
       <c r="Q34" t="n">
-        <v>778.5620966650561</v>
+        <v>778.5620966650555</v>
       </c>
       <c r="R34" t="n">
-        <v>768.4818807327279</v>
+        <v>768.4818807327274</v>
       </c>
       <c r="S34" t="n">
-        <v>702.5187753376016</v>
+        <v>702.5187753376013</v>
       </c>
       <c r="T34" t="n">
-        <v>627.4523581019617</v>
+        <v>627.4523581019614</v>
       </c>
       <c r="U34" t="n">
-        <v>493.0993451906591</v>
+        <v>493.0993451906588</v>
       </c>
       <c r="V34" t="n">
-        <v>392.1840347664645</v>
+        <v>392.1840347664643</v>
       </c>
       <c r="W34" t="n">
-        <v>257.7775871498695</v>
+        <v>257.7775871498693</v>
       </c>
       <c r="X34" t="n">
-        <v>183.9289344374222</v>
+        <v>183.9289344374221</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.5466312851175</v>
+        <v>117.5466312851173</v>
       </c>
     </row>
     <row r="35">
@@ -6914,61 +6914,61 @@
         <v>1159.05140286287</v>
       </c>
       <c r="C35" t="n">
-        <v>982.9079302710261</v>
+        <v>982.9079302710264</v>
       </c>
       <c r="D35" t="n">
-        <v>817.2496727542771</v>
+        <v>817.2496727542776</v>
       </c>
       <c r="E35" t="n">
-        <v>624.810301095418</v>
+        <v>624.8103010954185</v>
       </c>
       <c r="F35" t="n">
-        <v>407.9509014312525</v>
+        <v>407.950901431253</v>
       </c>
       <c r="G35" t="n">
-        <v>183.9741503329245</v>
+        <v>183.9741503329246</v>
       </c>
       <c r="H35" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543411</v>
       </c>
       <c r="I35" t="n">
-        <v>49.43827966315691</v>
+        <v>49.43827966315686</v>
       </c>
       <c r="J35" t="n">
-        <v>282.7123133603102</v>
+        <v>92.03528612542334</v>
       </c>
       <c r="K35" t="n">
-        <v>468.8307766440469</v>
+        <v>278.15374940916</v>
       </c>
       <c r="L35" t="n">
-        <v>751.6962661909782</v>
+        <v>561.0192389560914</v>
       </c>
       <c r="M35" t="n">
-        <v>1081.650919514856</v>
+        <v>1025.405920099377</v>
       </c>
       <c r="N35" t="n">
-        <v>1401.427409094214</v>
+        <v>1345.182409678734</v>
       </c>
       <c r="O35" t="n">
-        <v>1657.254929047548</v>
+        <v>1601.009929632068</v>
       </c>
       <c r="P35" t="n">
-        <v>1838.659005380857</v>
+        <v>1782.414005965377</v>
       </c>
       <c r="Q35" t="n">
-        <v>2032.138538144642</v>
+        <v>2032.138538144643</v>
       </c>
       <c r="R35" t="n">
-        <v>2114.392952271704</v>
+        <v>2114.392952271705</v>
       </c>
       <c r="S35" t="n">
-        <v>2112.844850573234</v>
+        <v>2112.844850573235</v>
       </c>
       <c r="T35" t="n">
-        <v>2084.452067686142</v>
+        <v>2084.452067686143</v>
       </c>
       <c r="U35" t="n">
-        <v>2025.024261783869</v>
+        <v>2025.024261783871</v>
       </c>
       <c r="V35" t="n">
         <v>1887.721066117706</v>
@@ -6977,7 +6977,7 @@
         <v>1728.198784110092</v>
       </c>
       <c r="X35" t="n">
-        <v>1548.139651465493</v>
+        <v>1548.139651465494</v>
       </c>
       <c r="Y35" t="n">
         <v>1352.09519294204</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>665.1945997452015</v>
+        <v>816.7046136214954</v>
       </c>
       <c r="C36" t="n">
-        <v>492.4414846670186</v>
+        <v>643.9514985433125</v>
       </c>
       <c r="D36" t="n">
-        <v>344.8531780259625</v>
+        <v>496.3631919022563</v>
       </c>
       <c r="E36" t="n">
-        <v>187.2436490288172</v>
+        <v>338.753662905111</v>
       </c>
       <c r="F36" t="n">
-        <v>42.28785904543409</v>
+        <v>193.7978729217279</v>
       </c>
       <c r="G36" t="n">
-        <v>42.28785904543409</v>
+        <v>56.67887435228079</v>
       </c>
       <c r="H36" t="n">
-        <v>42.28785904543409</v>
+        <v>56.67887435228079</v>
       </c>
       <c r="I36" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543411</v>
       </c>
       <c r="J36" t="n">
-        <v>75.44038945753277</v>
+        <v>75.44038945753323</v>
       </c>
       <c r="K36" t="n">
-        <v>258.7089576214451</v>
+        <v>258.7089576214456</v>
       </c>
       <c r="L36" t="n">
-        <v>565.9857712270841</v>
+        <v>565.9857712270846</v>
       </c>
       <c r="M36" t="n">
-        <v>977.3635134686118</v>
+        <v>977.3635134686124</v>
       </c>
       <c r="N36" t="n">
         <v>1415.027932458029</v>
       </c>
       <c r="O36" t="n">
-        <v>1747.777352455537</v>
+        <v>1747.777352455538</v>
       </c>
       <c r="P36" t="n">
-        <v>1998.411556631915</v>
+        <v>1998.411556631916</v>
       </c>
       <c r="Q36" t="n">
-        <v>2114.392952271704</v>
+        <v>2114.392952271705</v>
       </c>
       <c r="R36" t="n">
-        <v>2114.392952271704</v>
+        <v>2114.392952271705</v>
       </c>
       <c r="S36" t="n">
-        <v>2114.392952271704</v>
+        <v>2114.392952271705</v>
       </c>
       <c r="T36" t="n">
-        <v>1915.127830948295</v>
+        <v>2109.676374193768</v>
       </c>
       <c r="U36" t="n">
-        <v>1731.2582203786</v>
+        <v>1882.768234254894</v>
       </c>
       <c r="V36" t="n">
-        <v>1497.006976904201</v>
+        <v>1648.516990780495</v>
       </c>
       <c r="W36" t="n">
-        <v>1244.492485237534</v>
+        <v>1396.002499113828</v>
       </c>
       <c r="X36" t="n">
-        <v>1037.965586643111</v>
+        <v>1189.475600519405</v>
       </c>
       <c r="Y36" t="n">
-        <v>832.2371508667619</v>
+        <v>983.7471647430558</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543411</v>
       </c>
       <c r="C37" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543411</v>
       </c>
       <c r="D37" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543411</v>
       </c>
       <c r="E37" t="n">
-        <v>42.28785904543409</v>
+        <v>56.01765574377308</v>
       </c>
       <c r="F37" t="n">
-        <v>42.28785904543409</v>
+        <v>56.01765574377308</v>
       </c>
       <c r="G37" t="n">
-        <v>42.28785904543409</v>
+        <v>56.01765574377308</v>
       </c>
       <c r="H37" t="n">
-        <v>42.28785904543409</v>
+        <v>56.01765574377308</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28785904543409</v>
+        <v>56.01765574377308</v>
       </c>
       <c r="J37" t="n">
-        <v>42.28785904543409</v>
+        <v>56.01765574377308</v>
       </c>
       <c r="K37" t="n">
-        <v>54.21786998830206</v>
+        <v>67.94766668664106</v>
       </c>
       <c r="L37" t="n">
-        <v>125.2877917725999</v>
+        <v>139.0175884709389</v>
       </c>
       <c r="M37" t="n">
-        <v>224.5437558765185</v>
+        <v>224.543755876519</v>
       </c>
       <c r="N37" t="n">
-        <v>313.1775640764179</v>
+        <v>313.1775640764184</v>
       </c>
       <c r="O37" t="n">
-        <v>379.708635191164</v>
+        <v>379.7086351911646</v>
       </c>
       <c r="P37" t="n">
-        <v>413.4149787332327</v>
+        <v>413.4149787332333</v>
       </c>
       <c r="Q37" t="n">
-        <v>413.4149787332327</v>
+        <v>413.4149787332333</v>
       </c>
       <c r="R37" t="n">
-        <v>413.4149787332327</v>
+        <v>413.4149787332333</v>
       </c>
       <c r="S37" t="n">
-        <v>387.4244633037938</v>
+        <v>387.4244633037944</v>
       </c>
       <c r="T37" t="n">
-        <v>352.3306360338414</v>
+        <v>352.3306360338418</v>
       </c>
       <c r="U37" t="n">
-        <v>257.9502130882261</v>
+        <v>257.9502130882265</v>
       </c>
       <c r="V37" t="n">
-        <v>197.0074926297189</v>
+        <v>197.0074926297192</v>
       </c>
       <c r="W37" t="n">
-        <v>102.5736349788113</v>
+        <v>102.5736349788115</v>
       </c>
       <c r="X37" t="n">
-        <v>68.69757223205147</v>
+        <v>68.69757223205157</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543411</v>
       </c>
     </row>
     <row r="38">
@@ -7151,10 +7151,10 @@
         <v>1159.051402862871</v>
       </c>
       <c r="C38" t="n">
-        <v>982.9079302710271</v>
+        <v>982.9079302710268</v>
       </c>
       <c r="D38" t="n">
-        <v>817.2496727542782</v>
+        <v>817.249672754278</v>
       </c>
       <c r="E38" t="n">
         <v>624.8103010954189</v>
@@ -7163,49 +7163,49 @@
         <v>407.9509014312534</v>
       </c>
       <c r="G38" t="n">
-        <v>183.9741503329245</v>
+        <v>183.9741503329246</v>
       </c>
       <c r="H38" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543411</v>
       </c>
       <c r="I38" t="n">
-        <v>49.43827966315691</v>
+        <v>49.43827966315686</v>
       </c>
       <c r="J38" t="n">
-        <v>92.03528612542337</v>
+        <v>282.7123133603101</v>
       </c>
       <c r="K38" t="n">
-        <v>278.15374940916</v>
+        <v>603.2628044634541</v>
       </c>
       <c r="L38" t="n">
-        <v>561.0192389560914</v>
+        <v>886.1282940103856</v>
       </c>
       <c r="M38" t="n">
-        <v>890.973892279969</v>
+        <v>1216.082947334263</v>
       </c>
       <c r="N38" t="n">
-        <v>1345.182409678733</v>
+        <v>1535.859436913621</v>
       </c>
       <c r="O38" t="n">
-        <v>1791.686956866954</v>
+        <v>1791.686956866955</v>
       </c>
       <c r="P38" t="n">
-        <v>1973.091033200263</v>
+        <v>1973.091033200264</v>
       </c>
       <c r="Q38" t="n">
-        <v>2032.138538144642</v>
+        <v>2032.138538144643</v>
       </c>
       <c r="R38" t="n">
-        <v>2114.392952271704</v>
+        <v>2114.392952271705</v>
       </c>
       <c r="S38" t="n">
-        <v>2112.844850573234</v>
+        <v>2112.844850573235</v>
       </c>
       <c r="T38" t="n">
         <v>2084.452067686143</v>
       </c>
       <c r="U38" t="n">
-        <v>2025.02426178387</v>
+        <v>2025.024261783871</v>
       </c>
       <c r="V38" t="n">
         <v>1887.721066117706</v>
@@ -7230,58 +7230,58 @@
         <v>665.1945997452015</v>
       </c>
       <c r="C39" t="n">
-        <v>492.4414846670186</v>
+        <v>492.4414846670187</v>
       </c>
       <c r="D39" t="n">
-        <v>344.8531780259625</v>
+        <v>344.8531780259626</v>
       </c>
       <c r="E39" t="n">
-        <v>187.2436490288172</v>
+        <v>187.2436490288173</v>
       </c>
       <c r="F39" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543411</v>
       </c>
       <c r="G39" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543411</v>
       </c>
       <c r="H39" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543411</v>
       </c>
       <c r="I39" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543411</v>
       </c>
       <c r="J39" t="n">
-        <v>75.4403894575328</v>
+        <v>75.44038945753289</v>
       </c>
       <c r="K39" t="n">
-        <v>258.7089576214451</v>
+        <v>258.7089576214452</v>
       </c>
       <c r="L39" t="n">
-        <v>565.9857712270841</v>
+        <v>565.9857712270842</v>
       </c>
       <c r="M39" t="n">
-        <v>977.3635134686118</v>
+        <v>977.363513468612</v>
       </c>
       <c r="N39" t="n">
-        <v>1415.027932458029</v>
+        <v>1415.02793245803</v>
       </c>
       <c r="O39" t="n">
-        <v>1747.777352455537</v>
+        <v>1747.777352455538</v>
       </c>
       <c r="P39" t="n">
-        <v>1998.411556631915</v>
+        <v>1998.411556631916</v>
       </c>
       <c r="Q39" t="n">
-        <v>2114.392952271704</v>
+        <v>2114.392952271705</v>
       </c>
       <c r="R39" t="n">
-        <v>2114.392952271704</v>
+        <v>2114.392952271705</v>
       </c>
       <c r="S39" t="n">
-        <v>2114.392952271704</v>
+        <v>2114.392952271705</v>
       </c>
       <c r="T39" t="n">
-        <v>1915.127830948295</v>
+        <v>1958.166360317473</v>
       </c>
       <c r="U39" t="n">
         <v>1731.2582203786</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543411</v>
       </c>
       <c r="C40" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543411</v>
       </c>
       <c r="D40" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543411</v>
       </c>
       <c r="E40" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543411</v>
       </c>
       <c r="F40" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543411</v>
       </c>
       <c r="G40" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543411</v>
       </c>
       <c r="H40" t="n">
-        <v>56.01765574377262</v>
+        <v>56.01765574377308</v>
       </c>
       <c r="I40" t="n">
-        <v>56.01765574377262</v>
+        <v>56.01765574377308</v>
       </c>
       <c r="J40" t="n">
-        <v>56.01765574377262</v>
+        <v>56.01765574377308</v>
       </c>
       <c r="K40" t="n">
-        <v>67.94766668664059</v>
+        <v>67.94766668664106</v>
       </c>
       <c r="L40" t="n">
-        <v>139.0175884709384</v>
+        <v>139.0175884709389</v>
       </c>
       <c r="M40" t="n">
-        <v>224.5437558765185</v>
+        <v>224.543755876519</v>
       </c>
       <c r="N40" t="n">
-        <v>313.1775640764179</v>
+        <v>313.1775640764184</v>
       </c>
       <c r="O40" t="n">
-        <v>379.708635191164</v>
+        <v>379.7086351911646</v>
       </c>
       <c r="P40" t="n">
-        <v>413.4149787332327</v>
+        <v>413.4149787332333</v>
       </c>
       <c r="Q40" t="n">
-        <v>413.4149787332327</v>
+        <v>413.4149787332333</v>
       </c>
       <c r="R40" t="n">
-        <v>413.4149787332327</v>
+        <v>413.4149787332333</v>
       </c>
       <c r="S40" t="n">
-        <v>387.4244633037938</v>
+        <v>387.4244633037944</v>
       </c>
       <c r="T40" t="n">
-        <v>352.3306360338414</v>
+        <v>352.3306360338418</v>
       </c>
       <c r="U40" t="n">
-        <v>257.9502130882261</v>
+        <v>257.9502130882265</v>
       </c>
       <c r="V40" t="n">
-        <v>197.0074926297189</v>
+        <v>197.0074926297192</v>
       </c>
       <c r="W40" t="n">
-        <v>102.5736349788113</v>
+        <v>102.5736349788115</v>
       </c>
       <c r="X40" t="n">
-        <v>68.69757223205147</v>
+        <v>68.69757223205157</v>
       </c>
       <c r="Y40" t="n">
-        <v>42.28785904543409</v>
+        <v>42.28785904543411</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>1159.051402862871</v>
       </c>
       <c r="C41" t="n">
-        <v>982.9079302710267</v>
+        <v>982.9079302710268</v>
       </c>
       <c r="D41" t="n">
-        <v>817.2496727542778</v>
+        <v>817.2496727542779</v>
       </c>
       <c r="E41" t="n">
-        <v>624.8103010954187</v>
+        <v>624.8103010954188</v>
       </c>
       <c r="F41" t="n">
-        <v>407.9509014312532</v>
+        <v>407.9509014312533</v>
       </c>
       <c r="G41" t="n">
         <v>183.9741503329245</v>
@@ -7406,28 +7406,28 @@
         <v>42.28785904543409</v>
       </c>
       <c r="I41" t="n">
-        <v>49.43827966315691</v>
+        <v>49.43827966315692</v>
       </c>
       <c r="J41" t="n">
-        <v>282.7123133603102</v>
+        <v>226.4673139448299</v>
       </c>
       <c r="K41" t="n">
-        <v>468.8307766440469</v>
+        <v>412.5857772285665</v>
       </c>
       <c r="L41" t="n">
-        <v>751.6962661909782</v>
+        <v>695.451266775498</v>
       </c>
       <c r="M41" t="n">
-        <v>1081.650919514856</v>
+        <v>1025.405920099376</v>
       </c>
       <c r="N41" t="n">
-        <v>1401.427409094214</v>
+        <v>1345.182409678733</v>
       </c>
       <c r="O41" t="n">
-        <v>1657.254929047548</v>
+        <v>1601.009929632067</v>
       </c>
       <c r="P41" t="n">
-        <v>1838.659005380857</v>
+        <v>1782.414005965376</v>
       </c>
       <c r="Q41" t="n">
         <v>2032.138538144642</v>
@@ -7439,7 +7439,7 @@
         <v>2112.844850573234</v>
       </c>
       <c r="T41" t="n">
-        <v>2084.452067686142</v>
+        <v>2084.452067686143</v>
       </c>
       <c r="U41" t="n">
         <v>2025.02426178387</v>
@@ -7454,7 +7454,7 @@
         <v>1548.139651465494</v>
       </c>
       <c r="Y41" t="n">
-        <v>1352.09519294204</v>
+        <v>1352.095192942041</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>816.7046136214944</v>
+        <v>665.1945997452015</v>
       </c>
       <c r="C42" t="n">
-        <v>643.9514985433116</v>
+        <v>492.4414846670186</v>
       </c>
       <c r="D42" t="n">
-        <v>496.3631919022554</v>
+        <v>344.8531780259625</v>
       </c>
       <c r="E42" t="n">
-        <v>338.7536629051101</v>
+        <v>187.2436490288172</v>
       </c>
       <c r="F42" t="n">
-        <v>338.7536629051101</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="G42" t="n">
-        <v>201.634664335663</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="H42" t="n">
-        <v>92.74303236257114</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="I42" t="n">
         <v>42.28785904543409</v>
       </c>
       <c r="J42" t="n">
-        <v>75.44038945753277</v>
+        <v>75.44038945753286</v>
       </c>
       <c r="K42" t="n">
-        <v>258.7089576214451</v>
+        <v>258.7089576214452</v>
       </c>
       <c r="L42" t="n">
         <v>565.9857712270841</v>
       </c>
       <c r="M42" t="n">
-        <v>977.3635134686118</v>
+        <v>977.3635134686119</v>
       </c>
       <c r="N42" t="n">
         <v>1415.027932458029</v>
@@ -7506,7 +7506,7 @@
         <v>1747.777352455537</v>
       </c>
       <c r="P42" t="n">
-        <v>1998.411556631915</v>
+        <v>1998.411556631916</v>
       </c>
       <c r="Q42" t="n">
         <v>2114.392952271704</v>
@@ -7515,25 +7515,25 @@
         <v>2114.392952271704</v>
       </c>
       <c r="S42" t="n">
-        <v>2114.392952271704</v>
+        <v>1962.882938395411</v>
       </c>
       <c r="T42" t="n">
-        <v>2109.676374193767</v>
+        <v>1958.166360317473</v>
       </c>
       <c r="U42" t="n">
-        <v>1882.768234254893</v>
+        <v>1731.2582203786</v>
       </c>
       <c r="V42" t="n">
-        <v>1648.516990780494</v>
+        <v>1497.006976904201</v>
       </c>
       <c r="W42" t="n">
-        <v>1396.002499113827</v>
+        <v>1244.492485237534</v>
       </c>
       <c r="X42" t="n">
-        <v>1189.475600519404</v>
+        <v>1037.965586643111</v>
       </c>
       <c r="Y42" t="n">
-        <v>983.7471647430549</v>
+        <v>832.2371508667619</v>
       </c>
     </row>
     <row r="43">
@@ -7561,31 +7561,31 @@
         <v>42.28785904543409</v>
       </c>
       <c r="H43" t="n">
-        <v>42.28785904543409</v>
+        <v>56.01765574377251</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28785904543409</v>
+        <v>56.01765574377251</v>
       </c>
       <c r="J43" t="n">
-        <v>42.28785904543409</v>
+        <v>56.01765574377251</v>
       </c>
       <c r="K43" t="n">
-        <v>54.21786998830206</v>
+        <v>67.94766668664049</v>
       </c>
       <c r="L43" t="n">
-        <v>125.2877917725999</v>
+        <v>139.0175884709383</v>
       </c>
       <c r="M43" t="n">
-        <v>210.81395917818</v>
+        <v>224.5437558765184</v>
       </c>
       <c r="N43" t="n">
-        <v>299.4477673780794</v>
+        <v>313.1775640764179</v>
       </c>
       <c r="O43" t="n">
-        <v>365.9788384928255</v>
+        <v>379.708635191164</v>
       </c>
       <c r="P43" t="n">
-        <v>399.6851820348942</v>
+        <v>413.4149787332327</v>
       </c>
       <c r="Q43" t="n">
         <v>413.4149787332327</v>
@@ -7625,16 +7625,16 @@
         <v>1159.051402862871</v>
       </c>
       <c r="C44" t="n">
-        <v>982.9079302710267</v>
+        <v>982.9079302710268</v>
       </c>
       <c r="D44" t="n">
-        <v>817.249672754278</v>
+        <v>817.2496727542779</v>
       </c>
       <c r="E44" t="n">
-        <v>624.8103010954189</v>
+        <v>624.8103010954187</v>
       </c>
       <c r="F44" t="n">
-        <v>407.9509014312534</v>
+        <v>407.9509014312528</v>
       </c>
       <c r="G44" t="n">
         <v>183.9741503329245</v>
@@ -7643,19 +7643,19 @@
         <v>42.28785904543409</v>
       </c>
       <c r="I44" t="n">
-        <v>42.28785904543409</v>
+        <v>49.43827966315686</v>
       </c>
       <c r="J44" t="n">
-        <v>84.88486550770055</v>
+        <v>282.7123133603101</v>
       </c>
       <c r="K44" t="n">
-        <v>461.680356026324</v>
+        <v>603.2628044634533</v>
       </c>
       <c r="L44" t="n">
-        <v>744.5458455732554</v>
+        <v>886.1282940103847</v>
       </c>
       <c r="M44" t="n">
-        <v>1074.500498897133</v>
+        <v>1216.082947334262</v>
       </c>
       <c r="N44" t="n">
         <v>1535.85943691362</v>
@@ -7676,7 +7676,7 @@
         <v>2112.844850573234</v>
       </c>
       <c r="T44" t="n">
-        <v>2084.452067686142</v>
+        <v>2084.452067686143</v>
       </c>
       <c r="U44" t="n">
         <v>2025.02426178387</v>
@@ -7691,7 +7691,7 @@
         <v>1548.139651465494</v>
       </c>
       <c r="Y44" t="n">
-        <v>1352.09519294204</v>
+        <v>1352.095192942041</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>665.1945997452015</v>
+        <v>520.2388097618184</v>
       </c>
       <c r="C45" t="n">
-        <v>492.4414846670186</v>
+        <v>347.4856946836355</v>
       </c>
       <c r="D45" t="n">
-        <v>344.8531780259625</v>
+        <v>199.8973880425794</v>
       </c>
       <c r="E45" t="n">
-        <v>187.2436490288172</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="F45" t="n">
         <v>42.28785904543409</v>
@@ -7725,16 +7725,16 @@
         <v>42.28785904543409</v>
       </c>
       <c r="J45" t="n">
-        <v>75.4403894575328</v>
+        <v>75.44038945753289</v>
       </c>
       <c r="K45" t="n">
-        <v>258.7089576214451</v>
+        <v>258.7089576214452</v>
       </c>
       <c r="L45" t="n">
         <v>565.9857712270841</v>
       </c>
       <c r="M45" t="n">
-        <v>977.3635134686118</v>
+        <v>977.3635134686119</v>
       </c>
       <c r="N45" t="n">
         <v>1415.027932458029</v>
@@ -7752,25 +7752,25 @@
         <v>2114.392952271704</v>
       </c>
       <c r="S45" t="n">
-        <v>2114.392952271704</v>
+        <v>2012.4756916575</v>
       </c>
       <c r="T45" t="n">
-        <v>1958.166360317473</v>
+        <v>1813.21057033409</v>
       </c>
       <c r="U45" t="n">
-        <v>1731.2582203786</v>
+        <v>1586.302430395217</v>
       </c>
       <c r="V45" t="n">
-        <v>1497.006976904201</v>
+        <v>1352.051186920818</v>
       </c>
       <c r="W45" t="n">
-        <v>1244.492485237534</v>
+        <v>1099.536695254151</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.965586643111</v>
+        <v>893.0097966597284</v>
       </c>
       <c r="Y45" t="n">
-        <v>832.2371508667619</v>
+        <v>687.2813608833789</v>
       </c>
     </row>
     <row r="46">
@@ -7813,40 +7813,40 @@
         <v>125.2877917725999</v>
       </c>
       <c r="M46" t="n">
-        <v>224.5437558765185</v>
+        <v>210.81395917818</v>
       </c>
       <c r="N46" t="n">
-        <v>313.1775640764179</v>
+        <v>299.4477673780794</v>
       </c>
       <c r="O46" t="n">
-        <v>379.708635191164</v>
+        <v>365.9788384928255</v>
       </c>
       <c r="P46" t="n">
-        <v>413.4149787332327</v>
+        <v>399.6851820348942</v>
       </c>
       <c r="Q46" t="n">
-        <v>413.4149787332327</v>
+        <v>399.6851820348942</v>
       </c>
       <c r="R46" t="n">
-        <v>413.4149787332327</v>
+        <v>413.4149787332331</v>
       </c>
       <c r="S46" t="n">
-        <v>387.4244633037938</v>
+        <v>387.4244633037941</v>
       </c>
       <c r="T46" t="n">
-        <v>352.3306360338414</v>
+        <v>352.3306360338416</v>
       </c>
       <c r="U46" t="n">
-        <v>257.9502130882261</v>
+        <v>257.9502130882263</v>
       </c>
       <c r="V46" t="n">
-        <v>197.0074926297189</v>
+        <v>197.0074926297191</v>
       </c>
       <c r="W46" t="n">
-        <v>102.5736349788113</v>
+        <v>102.5736349788114</v>
       </c>
       <c r="X46" t="n">
-        <v>68.69757223205147</v>
+        <v>68.69757223205153</v>
       </c>
       <c r="Y46" t="n">
         <v>42.28785904543409</v>
@@ -8529,28 +8529,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>134.395403</v>
+        <v>174.2767672041689</v>
       </c>
       <c r="L9" t="n">
         <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>178.4620472781367</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N9" t="n">
-        <v>167.9395334854188</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
-        <v>139.0313383333333</v>
+        <v>169.8333435328035</v>
       </c>
       <c r="P9" t="n">
         <v>170.5064114331408</v>
       </c>
       <c r="Q9" t="n">
-        <v>174.7522256873663</v>
+        <v>176.3635939380398</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8766,10 +8766,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>97.64727229735976</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>275.0438464930818</v>
+        <v>89.92408067094814</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8778,16 +8778,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.2856964442811</v>
+        <v>479.2856964442812</v>
       </c>
       <c r="O12" t="n">
-        <v>160.7866154792064</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2012793855346</v>
+        <v>116.8505192937348</v>
       </c>
       <c r="Q12" t="n">
-        <v>101.327454356607</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9243,7 +9243,7 @@
         <v>97.64727229735976</v>
       </c>
       <c r="K18" t="n">
-        <v>89.92408067094814</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9255,13 +9255,13 @@
         <v>479.2856964442812</v>
       </c>
       <c r="O18" t="n">
-        <v>345.9063813013402</v>
+        <v>296.7995533949533</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2012793855346</v>
+        <v>78.035416581112</v>
       </c>
       <c r="Q18" t="n">
-        <v>101.327454356607</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9480,10 +9480,10 @@
         <v>97.64727229735976</v>
       </c>
       <c r="K21" t="n">
-        <v>89.92408067094811</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>321.9635283691391</v>
+        <v>136.8437625470054</v>
       </c>
       <c r="M21" t="n">
         <v>484.3332662999999</v>
@@ -9717,16 +9717,16 @@
         <v>97.64727229735976</v>
       </c>
       <c r="K24" t="n">
-        <v>89.92408067094814</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
-        <v>321.9635283691387</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.2856964442811</v>
+        <v>230.455499875689</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -10662,7 +10662,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>131.1346767540255</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10899,7 +10899,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540251</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -11157,7 +11157,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>218.4803792452826</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11373,7 +11373,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540251</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>178.8108190720332</v>
       </c>
       <c r="C11" t="n">
-        <v>244.7738555799715</v>
+        <v>244.7738555799716</v>
       </c>
       <c r="D11" t="n">
-        <v>168.1386692353348</v>
+        <v>234.3934926556274</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>260.9067956563164</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>63.16917062543698</v>
+        <v>63.16917062543708</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92443839553169</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>98.50067277226626</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>129.2253455572958</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>206.3219814235482</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>228.3188769015835</v>
+        <v>228.3188769015836</v>
       </c>
       <c r="X11" t="n">
-        <v>248.6503590321983</v>
+        <v>248.6503590321984</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>5.120915016542199</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>5.120915016545155</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>138.0228127438852</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.3934926556273</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>228.9881850027109</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>285.0826233815698</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>210.6612460886614</v>
       </c>
       <c r="I14" t="n">
-        <v>63.169170625437</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>71.92443839553172</v>
       </c>
       <c r="T14" t="n">
-        <v>98.50067277226628</v>
+        <v>98.5006727722663</v>
       </c>
       <c r="U14" t="n">
         <v>129.2253455572958</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>206.3219814235483</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>228.3188769015835</v>
       </c>
       <c r="X14" t="n">
-        <v>248.6503590321983</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.4758316522647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>5.120915016542909</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>5.120915016542853</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81215.63777557405</v>
+        <v>81215.63777557407</v>
       </c>
       <c r="C2" t="n">
-        <v>81215.63777557405</v>
+        <v>81215.63777557407</v>
       </c>
       <c r="D2" t="n">
-        <v>81391.94086149371</v>
+        <v>81391.9408614937</v>
       </c>
       <c r="E2" t="n">
-        <v>69765.82464404957</v>
+        <v>69765.8246440495</v>
       </c>
       <c r="F2" t="n">
-        <v>69765.82464404956</v>
+        <v>69765.8246440495</v>
       </c>
       <c r="G2" t="n">
+        <v>81391.94086149358</v>
+      </c>
+      <c r="H2" t="n">
+        <v>81391.94086149361</v>
+      </c>
+      <c r="I2" t="n">
         <v>81391.9408614936</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>81391.94086149357</v>
       </c>
-      <c r="I2" t="n">
-        <v>81391.94086149363</v>
-      </c>
-      <c r="J2" t="n">
-        <v>81391.94086149355</v>
-      </c>
       <c r="K2" t="n">
-        <v>81391.94086149352</v>
+        <v>81391.94086149349</v>
       </c>
       <c r="L2" t="n">
         <v>81391.94086149371</v>
@@ -26347,13 +26347,13 @@
         <v>81391.94086149364</v>
       </c>
       <c r="N2" t="n">
+        <v>81391.94086149367</v>
+      </c>
+      <c r="O2" t="n">
         <v>81391.94086149363</v>
       </c>
-      <c r="O2" t="n">
-        <v>81391.94086149367</v>
-      </c>
       <c r="P2" t="n">
-        <v>81391.94086149363</v>
+        <v>81391.94086149364</v>
       </c>
     </row>
     <row r="3">
@@ -26375,25 +26375,25 @@
         <v>314982.2527306583</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>81695.27251532882</v>
+        <v>81695.2725153288</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>110109.3838226775</v>
+        <v>110109.3838226773</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.145141455743994e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>89949.75775285084</v>
+        <v>89949.7577528509</v>
       </c>
       <c r="M3" t="n">
         <v>89443.2957910563</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32474.39724473839</v>
+        <v>32474.39724473835</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>383511.7535806273</v>
       </c>
       <c r="E4" t="n">
-        <v>233454.3231975458</v>
+        <v>233454.3231975457</v>
       </c>
       <c r="F4" t="n">
-        <v>233454.3231975458</v>
+        <v>233454.3231975457</v>
       </c>
       <c r="G4" t="n">
         <v>299551.6789532357</v>
       </c>
       <c r="H4" t="n">
-        <v>299551.6789532357</v>
+        <v>299551.6789532356</v>
       </c>
       <c r="I4" t="n">
         <v>299551.6789532357</v>
       </c>
       <c r="J4" t="n">
-        <v>295003.1184993647</v>
+        <v>295003.1184993646</v>
       </c>
       <c r="K4" t="n">
-        <v>295003.1184993647</v>
+        <v>295003.1184993646</v>
       </c>
       <c r="L4" t="n">
         <v>294796.8040555407</v>
       </c>
       <c r="M4" t="n">
+        <v>294074.4037443043</v>
+      </c>
+      <c r="N4" t="n">
+        <v>294074.4037443043</v>
+      </c>
+      <c r="O4" t="n">
         <v>294074.4037443044</v>
       </c>
-      <c r="N4" t="n">
-        <v>294074.4037443044</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>294074.4037443043</v>
-      </c>
-      <c r="P4" t="n">
-        <v>294074.4037443044</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>36052.38694361346</v>
       </c>
       <c r="E5" t="n">
-        <v>38774.97418276354</v>
+        <v>38774.97418276353</v>
       </c>
       <c r="F5" t="n">
         <v>38774.97418276354</v>
@@ -26494,22 +26494,22 @@
         <v>58539.03099407723</v>
       </c>
       <c r="K5" t="n">
-        <v>58539.03099407724</v>
+        <v>58539.03099407723</v>
       </c>
       <c r="L5" t="n">
         <v>56981.67694975533</v>
       </c>
       <c r="M5" t="n">
-        <v>51121.93893162076</v>
+        <v>51121.93893162077</v>
       </c>
       <c r="N5" t="n">
-        <v>51121.93893162076</v>
+        <v>51121.93893162077</v>
       </c>
       <c r="O5" t="n">
         <v>51121.93893162076</v>
       </c>
       <c r="P5" t="n">
-        <v>51121.93893162076</v>
+        <v>51121.93893162075</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-342592.8005858209</v>
+        <v>-342597.2081629689</v>
       </c>
       <c r="C6" t="n">
-        <v>-342592.8005858209</v>
+        <v>-342597.2081629689</v>
       </c>
       <c r="D6" t="n">
         <v>-350560.547825488</v>
       </c>
       <c r="E6" t="n">
-        <v>-517445.7254669181</v>
+        <v>-517736.3783723541</v>
       </c>
       <c r="F6" t="n">
-        <v>-202463.4727362597</v>
+        <v>-202754.125641696</v>
       </c>
       <c r="G6" t="n">
-        <v>-347215.0346211985</v>
+        <v>-347215.0346211984</v>
       </c>
       <c r="H6" t="n">
-        <v>-265519.7621058696</v>
+        <v>-265519.7621058695</v>
       </c>
       <c r="I6" t="n">
         <v>-265519.7621058696</v>
       </c>
       <c r="J6" t="n">
-        <v>-382259.5924546258</v>
+        <v>-382259.5924546256</v>
       </c>
       <c r="K6" t="n">
-        <v>-272150.2086319485</v>
+        <v>-272150.2086319484</v>
       </c>
       <c r="L6" t="n">
         <v>-360336.2978966532</v>
@@ -26555,13 +26555,13 @@
         <v>-353247.6976054878</v>
       </c>
       <c r="N6" t="n">
-        <v>-263804.4018144315</v>
+        <v>-263804.4018144314</v>
       </c>
       <c r="O6" t="n">
         <v>-296278.7990591698</v>
       </c>
       <c r="P6" t="n">
-        <v>-263804.4018144315</v>
+        <v>-263804.4018144314</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="F2" t="n">
         <v>122.2112400989711</v>
@@ -26707,19 +26707,19 @@
         <v>224.3303307431321</v>
       </c>
       <c r="J2" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="K2" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="L2" t="n">
         <v>153.0301937469865</v>
       </c>
       <c r="M2" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="N2" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="O2" t="n">
         <v>192.603057813017</v>
@@ -26759,22 +26759,22 @@
         <v>128.0375958627672</v>
       </c>
       <c r="J3" t="n">
-        <v>128.0375958627671</v>
+        <v>128.0375958627672</v>
       </c>
       <c r="K3" t="n">
-        <v>128.0375958627671</v>
+        <v>128.0375958627672</v>
       </c>
       <c r="L3" t="n">
-        <v>128.0375958627671</v>
+        <v>128.0375958627672</v>
       </c>
       <c r="M3" t="n">
-        <v>128.0375958627671</v>
+        <v>128.0375958627672</v>
       </c>
       <c r="N3" t="n">
-        <v>128.0375958627671</v>
+        <v>128.0375958627672</v>
       </c>
       <c r="O3" t="n">
-        <v>128.0375958627671</v>
+        <v>128.0375958627672</v>
       </c>
       <c r="P3" t="n">
         <v>128.0375958627671</v>
@@ -26796,7 +26796,7 @@
         <v>39.88136420416884</v>
       </c>
       <c r="E4" t="n">
-        <v>422.8548988334673</v>
+        <v>422.8548988334674</v>
       </c>
       <c r="F4" t="n">
         <v>422.8548988334674</v>
@@ -26808,7 +26808,7 @@
         <v>422.8548988334674</v>
       </c>
       <c r="I4" t="n">
-        <v>422.8548988334672</v>
+        <v>422.8548988334674</v>
       </c>
       <c r="J4" t="n">
         <v>719.5748181816621</v>
@@ -26820,10 +26820,10 @@
         <v>679.6934539774934</v>
       </c>
       <c r="M4" t="n">
-        <v>528.5982380679261</v>
+        <v>528.5982380679263</v>
       </c>
       <c r="N4" t="n">
-        <v>528.5982380679261</v>
+        <v>528.5982380679263</v>
       </c>
       <c r="O4" t="n">
         <v>528.5982380679261</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="G2" t="n">
         <v>102.119090644161</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.59299655592298</v>
+        <v>40.59299655592285</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>112.4371971910635</v>
+        <v>112.4371971910636</v>
       </c>
       <c r="M2" t="n">
-        <v>39.57286406603052</v>
+        <v>39.57286406603043</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.59299655592298</v>
+        <v>40.59299655592294</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>296.7199193481948</v>
+        <v>296.7199193481947</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>231.8783187197312</v>
+        <v>231.8783187197315</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
         <v>102.119090644161</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.59299655592298</v>
+        <v>40.59299655592285</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.716409991395</v>
+        <v>343.8350457872262</v>
       </c>
       <c r="C8" t="n">
-        <v>327.1037314747738</v>
+        <v>354.6654961068449</v>
       </c>
       <c r="D8" t="n">
-        <v>316.7233685504295</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>363.5045727026489</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>367.412499276372</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.1439033881534</v>
+        <v>298.2625391839845</v>
       </c>
       <c r="I8" t="n">
         <v>205.224307868124</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>101.9694584967082</v>
       </c>
       <c r="S8" t="n">
         <v>205.8649517235392</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>130.2446200193129</v>
       </c>
       <c r="C9" t="n">
         <v>171.025583927401</v>
@@ -27944,13 +27944,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>100.8957046140104</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>70.58115131796393</v>
       </c>
       <c r="I9" t="n">
-        <v>46.62217926130283</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>54.81361555692238</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>158.5011677040998</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
@@ -27995,10 +27995,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>164.5802654043094</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>163.7897872144172</v>
       </c>
     </row>
     <row r="10">
@@ -28020,7 +28020,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
-        <v>146.1590214098045</v>
+        <v>106.2776572056356</v>
       </c>
       <c r="G10" t="n">
         <v>167.8895889301081</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>59.40760400264965</v>
+        <v>39.87933567167934</v>
       </c>
       <c r="R10" t="n">
-        <v>133.5097834656135</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
-        <v>182.4760427572537</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T10" t="n">
-        <v>188.4511017873388</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
         <v>286.0522703910642</v>
       </c>
       <c r="V10" t="n">
-        <v>252.9363510669392</v>
+        <v>232.5832551937406</v>
       </c>
       <c r="W10" t="n">
-        <v>286.0925768874155</v>
+        <v>246.2112126832467</v>
       </c>
       <c r="X10" t="n">
         <v>226.1403599323093</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="C11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="D11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="E11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="F11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="G11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="H11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="I11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>109.5177910180045</v>
       </c>
       <c r="S11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="T11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="U11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="W11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="X11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
     </row>
     <row r="12">
@@ -28169,19 +28169,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="D12" t="n">
-        <v>19.30341254687279</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="F12" t="n">
-        <v>122.2112400989711</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>122.2112400989711</v>
+        <v>96.89933375104599</v>
       </c>
       <c r="H12" t="n">
         <v>107.8027156533609</v>
@@ -28214,25 +28214,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.59592120417298</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.2112400989711</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>122.211240098971</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>122.211240098971</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>122.211240098971</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="C13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="D13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="E13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="F13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="G13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="H13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="I13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="J13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="K13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="L13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="M13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="N13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="O13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="P13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="R13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="S13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="T13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="U13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="V13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="W13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="X13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
       <c r="Y13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.211240098971</v>
       </c>
     </row>
     <row r="14">
@@ -28406,7 +28406,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>19.30341254687275</v>
       </c>
       <c r="D15" t="n">
         <v>122.2112400989711</v>
@@ -28415,13 +28415,13 @@
         <v>122.2112400989711</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>122.2112400989711</v>
       </c>
       <c r="G15" t="n">
         <v>122.2112400989711</v>
       </c>
       <c r="H15" t="n">
-        <v>4.894888101262453</v>
+        <v>107.8027156533609</v>
       </c>
       <c r="I15" t="n">
         <v>77.02151396054032</v>
@@ -28460,13 +28460,13 @@
         <v>122.2112400989711</v>
       </c>
       <c r="U15" t="n">
-        <v>122.2112400989711</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>122.2112400989711</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>163.0096075199914</v>
       </c>
       <c r="S19" t="n">
-        <v>21.41357583904531</v>
+        <v>218.3336680881615</v>
       </c>
       <c r="T19" t="n">
         <v>224.3303307431321</v>
@@ -28788,7 +28788,7 @@
         <v>224.3303307431321</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>21.82858161865241</v>
       </c>
     </row>
     <row r="20">
@@ -28886,10 +28886,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>112.1981927828495</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>135.7478085837526</v>
@@ -28934,7 +28934,7 @@
         <v>197.2724701101754</v>
       </c>
       <c r="U21" t="n">
-        <v>99.67099115922501</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28974,13 +28974,13 @@
         <v>167.6587014621588</v>
       </c>
       <c r="H22" t="n">
-        <v>159.5812725211498</v>
+        <v>159.5812725211499</v>
       </c>
       <c r="I22" t="n">
         <v>146.8151309430752</v>
       </c>
       <c r="J22" t="n">
-        <v>72.5151009437668</v>
+        <v>72.51510094376681</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,16 +29001,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.42702290057033</v>
+        <v>60.42702290057034</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>163.0096075199914</v>
       </c>
       <c r="S22" t="n">
         <v>218.3336680881615</v>
       </c>
       <c r="T22" t="n">
-        <v>190.4198460140072</v>
+        <v>27.41023849401594</v>
       </c>
       <c r="U22" t="n">
         <v>224.3303307431321</v>
@@ -29123,10 +29123,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>99.67099115922539</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>135.7478085837526</v>
@@ -29171,10 +29171,10 @@
         <v>197.2724701101754</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>224.3303307431321</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>31.37409412326653</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29244,10 +29244,10 @@
         <v>163.0096075199914</v>
       </c>
       <c r="S25" t="n">
-        <v>218.3336680881615</v>
+        <v>21.41357583904531</v>
       </c>
       <c r="T25" t="n">
-        <v>27.41023849401594</v>
+        <v>224.3303307431321</v>
       </c>
       <c r="U25" t="n">
         <v>224.3303307431321</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="C26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="D26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="E26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="F26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="G26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="H26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="I26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="J26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="K26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="L26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="M26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="N26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="O26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="P26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="Q26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="R26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="S26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="T26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="U26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="V26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="W26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="X26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="Y26" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
     </row>
     <row r="27">
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>56.77792783944396</v>
+        <v>135.7478085837526</v>
       </c>
       <c r="H27" t="n">
         <v>107.8027156533609</v>
@@ -29402,10 +29402,10 @@
         <v>77.59592120417298</v>
       </c>
       <c r="S27" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="T27" t="n">
-        <v>142.712087200084</v>
+        <v>63.74220645577509</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="C28" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="D28" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="E28" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="F28" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="G28" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="H28" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="I28" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="J28" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="K28" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="L28" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="M28" t="n">
-        <v>16.965882014786</v>
+        <v>16.96588201478633</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="O28" t="n">
-        <v>142.712087200084</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>60.42702290057034</v>
+        <v>60.42702290057033</v>
       </c>
       <c r="R28" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="S28" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="T28" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="U28" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="V28" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="W28" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="X28" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="C29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="D29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="E29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="F29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="G29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="H29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="I29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="J29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="K29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="L29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="M29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="N29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="O29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="P29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="Q29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="R29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="S29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="T29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="U29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="V29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="W29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="X29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="Y29" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
     </row>
     <row r="30">
@@ -29603,7 +29603,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>56.77792783944398</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>107.8027156533609</v>
@@ -29639,13 +29639,13 @@
         <v>77.59592120417298</v>
       </c>
       <c r="S30" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="T30" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>56.777927839444</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="C31" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="D31" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="E31" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="F31" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="G31" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="H31" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="I31" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="J31" t="n">
-        <v>142.712087200084</v>
+        <v>72.5151009437668</v>
       </c>
       <c r="K31" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="L31" t="n">
-        <v>142.712087200084</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="N31" t="n">
-        <v>16.96588201478599</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>4.877803971590566</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.42702290057034</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="R31" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="S31" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="T31" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="U31" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="V31" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="W31" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="X31" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
       <c r="Y31" t="n">
-        <v>142.712087200084</v>
+        <v>142.7120872000839</v>
       </c>
     </row>
     <row r="32">
@@ -29773,10 +29773,10 @@
         <v>153.0301937469865</v>
       </c>
       <c r="K32" t="n">
-        <v>153.0301937469865</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>55.28334000584834</v>
       </c>
       <c r="M32" t="n">
         <v>153.0301937469865</v>
@@ -29788,7 +29788,7 @@
         <v>153.0301937469865</v>
       </c>
       <c r="P32" t="n">
-        <v>55.28334000584863</v>
+        <v>153.0301937469865</v>
       </c>
       <c r="Q32" t="n">
         <v>153.0301937469865</v>
@@ -29879,10 +29879,10 @@
         <v>153.0301937469865</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>53.42409990887245</v>
       </c>
       <c r="U33" t="n">
-        <v>53.42409990887296</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29928,28 +29928,28 @@
         <v>146.8151309430752</v>
       </c>
       <c r="J34" t="n">
+        <v>72.5151009437668</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>124.8608751615425</v>
+      </c>
+      <c r="M34" t="n">
         <v>153.0301937469865</v>
       </c>
-      <c r="K34" t="n">
-        <v>136.9489532047399</v>
-      </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>153.0301937469865</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>60.42702290057034</v>
       </c>
       <c r="R34" t="n">
         <v>153.0301937469865</v>
@@ -29983,31 +29983,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="C35" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="D35" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="E35" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="F35" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="G35" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="H35" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="I35" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="J35" t="n">
-        <v>192.603057813017</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30016,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>135.7899270903105</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30028,31 +30028,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>135.7899270903093</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="R35" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="S35" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="T35" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="U35" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="V35" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="W35" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="X35" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="Y35" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
     </row>
     <row r="36">
@@ -30077,13 +30077,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7478085837526</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>107.8027156533609</v>
       </c>
       <c r="I36" t="n">
-        <v>77.02151396054032</v>
+        <v>62.77440880676211</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30116,10 +30116,10 @@
         <v>163.8461495803725</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="U36" t="n">
-        <v>42.60814407548679</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30150,7 +30150,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>160.8431056866729</v>
       </c>
       <c r="F37" t="n">
         <v>146.1590214098045</v>
@@ -30159,13 +30159,13 @@
         <v>167.6587014621588</v>
       </c>
       <c r="H37" t="n">
-        <v>159.5812725211499</v>
+        <v>159.5812725211498</v>
       </c>
       <c r="I37" t="n">
         <v>146.8151309430752</v>
       </c>
       <c r="J37" t="n">
-        <v>72.51510094376681</v>
+        <v>72.5151009437668</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>13.86848151347327</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.42702290057034</v>
+        <v>60.42702290057033</v>
       </c>
       <c r="R37" t="n">
         <v>163.0096075199914</v>
       </c>
       <c r="S37" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="T37" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="U37" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="V37" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="W37" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="X37" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
     </row>
     <row r="38">
@@ -30220,34 +30220,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="C38" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="D38" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="E38" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="F38" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="G38" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="H38" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="I38" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.7899270903105</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30256,10 +30256,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>135.7899270903096</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>192.603057813017</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="S38" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="T38" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="U38" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="V38" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="W38" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="X38" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="Y38" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
     </row>
     <row r="39">
@@ -30353,10 +30353,10 @@
         <v>163.8461495803725</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>42.60814407548585</v>
       </c>
       <c r="U39" t="n">
-        <v>42.60814407548679</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30396,13 +30396,13 @@
         <v>167.6587014621588</v>
       </c>
       <c r="H40" t="n">
-        <v>173.4497540346231</v>
+        <v>173.4497540346235</v>
       </c>
       <c r="I40" t="n">
         <v>146.8151309430752</v>
       </c>
       <c r="J40" t="n">
-        <v>72.51510094376681</v>
+        <v>72.5151009437668</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.42702290057034</v>
+        <v>60.42702290057033</v>
       </c>
       <c r="R40" t="n">
         <v>163.0096075199914</v>
       </c>
       <c r="S40" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="T40" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="U40" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="V40" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="W40" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="X40" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
     </row>
     <row r="41">
@@ -30481,28 +30481,28 @@
         <v>192.603057813017</v>
       </c>
       <c r="J41" t="n">
+        <v>135.7899270903096</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>192.603057813017</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>135.7899270903093</v>
       </c>
       <c r="R41" t="n">
         <v>192.603057813017</v>
@@ -30548,16 +30548,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.7478085837526</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.8027156533609</v>
       </c>
       <c r="I42" t="n">
-        <v>27.07089237657464</v>
+        <v>77.02151396054032</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30587,7 +30587,7 @@
         <v>77.59592120417298</v>
       </c>
       <c r="S42" t="n">
-        <v>163.8461495803725</v>
+        <v>13.85123584284221</v>
       </c>
       <c r="T42" t="n">
         <v>192.603057813017</v>
@@ -30633,13 +30633,13 @@
         <v>167.6587014621588</v>
       </c>
       <c r="H43" t="n">
-        <v>159.5812725211499</v>
+        <v>173.449754034623</v>
       </c>
       <c r="I43" t="n">
         <v>146.8151309430752</v>
       </c>
       <c r="J43" t="n">
-        <v>72.51510094376681</v>
+        <v>72.5151009437668</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.29550441404355</v>
+        <v>60.42702290057033</v>
       </c>
       <c r="R43" t="n">
         <v>163.0096075199914</v>
@@ -30715,13 +30715,13 @@
         <v>192.603057813017</v>
       </c>
       <c r="I44" t="n">
-        <v>185.3804107244081</v>
+        <v>192.603057813017</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>192.603057813017</v>
       </c>
       <c r="K44" t="n">
-        <v>192.603057813017</v>
+        <v>135.7899270903097</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.0125741789182</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30785,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
         <v>135.7478085837526</v>
@@ -30824,10 +30824,10 @@
         <v>77.59592120417298</v>
       </c>
       <c r="S45" t="n">
-        <v>163.8461495803725</v>
+        <v>62.94806157231012</v>
       </c>
       <c r="T45" t="n">
-        <v>42.60814407548673</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>13.86848151347327</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>60.42702290057034</v>
       </c>
       <c r="R46" t="n">
-        <v>163.0096075199914</v>
+        <v>176.878089033465</v>
       </c>
       <c r="S46" t="n">
         <v>192.603057813017</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5147240034684105</v>
+        <v>0.5147240034684104</v>
       </c>
       <c r="H20" t="n">
-        <v>5.27141720052086</v>
+        <v>5.271417200520859</v>
       </c>
       <c r="I20" t="n">
         <v>19.84389714371591</v>
       </c>
       <c r="J20" t="n">
-        <v>43.68655638937705</v>
+        <v>43.68655638937703</v>
       </c>
       <c r="K20" t="n">
-        <v>65.47482345619487</v>
+        <v>65.47482345619485</v>
       </c>
       <c r="L20" t="n">
-        <v>81.22730817734126</v>
+        <v>81.22730817734124</v>
       </c>
       <c r="M20" t="n">
-        <v>90.3810311740226</v>
+        <v>90.38103117402258</v>
       </c>
       <c r="N20" t="n">
-        <v>91.84349074887723</v>
+        <v>91.8434907488772</v>
       </c>
       <c r="O20" t="n">
-        <v>86.72520393938821</v>
+        <v>86.72520393938819</v>
       </c>
       <c r="P20" t="n">
-        <v>74.01795510376182</v>
+        <v>74.01795510376181</v>
       </c>
       <c r="Q20" t="n">
-        <v>55.58440172954935</v>
+        <v>55.58440172954934</v>
       </c>
       <c r="R20" t="n">
-        <v>32.33303168287257</v>
+        <v>32.33303168287256</v>
       </c>
       <c r="S20" t="n">
-        <v>11.72927322903642</v>
+        <v>11.72927322903641</v>
       </c>
       <c r="T20" t="n">
-        <v>2.253204325182968</v>
+        <v>2.253204325182967</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04117792027747283</v>
+        <v>0.04117792027747282</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2754016212897257</v>
+        <v>0.2754016212897256</v>
       </c>
       <c r="H21" t="n">
-        <v>2.659799868771825</v>
+        <v>2.659799868771824</v>
       </c>
       <c r="I21" t="n">
-        <v>9.482029504931347</v>
+        <v>9.482029504931344</v>
       </c>
       <c r="J21" t="n">
         <v>26.01941370264027</v>
       </c>
       <c r="K21" t="n">
-        <v>44.47132232905189</v>
+        <v>44.47132232905188</v>
       </c>
       <c r="L21" t="n">
         <v>59.79718097345557</v>
       </c>
       <c r="M21" t="n">
-        <v>69.78048974520811</v>
+        <v>69.7804897452081</v>
       </c>
       <c r="N21" t="n">
-        <v>71.62737167043616</v>
+        <v>71.62737167043615</v>
       </c>
       <c r="O21" t="n">
-        <v>65.52505153554276</v>
+        <v>65.52505153554274</v>
       </c>
       <c r="P21" t="n">
-        <v>52.58963064785999</v>
+        <v>52.58963064785998</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.15477537726394</v>
+        <v>35.15477537726393</v>
       </c>
       <c r="R21" t="n">
-        <v>17.09905855691824</v>
+        <v>17.09905855691823</v>
       </c>
       <c r="S21" t="n">
-        <v>5.115464325271875</v>
+        <v>5.115464325271874</v>
       </c>
       <c r="T21" t="n">
         <v>1.110061798093236</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01811852771642933</v>
+        <v>0.01811852771642932</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2308874679492523</v>
+        <v>0.2308874679492522</v>
       </c>
       <c r="H22" t="n">
         <v>2.05279948776699</v>
       </c>
       <c r="I22" t="n">
-        <v>6.943415854328427</v>
+        <v>6.943415854328425</v>
       </c>
       <c r="J22" t="n">
-        <v>16.32374398401214</v>
+        <v>16.32374398401213</v>
       </c>
       <c r="K22" t="n">
-        <v>26.8249258217404</v>
+        <v>26.82492582174039</v>
       </c>
       <c r="L22" t="n">
         <v>34.32666955310975</v>
       </c>
       <c r="M22" t="n">
-        <v>36.19266008953598</v>
+        <v>36.19266008953596</v>
       </c>
       <c r="N22" t="n">
-        <v>35.3320795271797</v>
+        <v>35.33207952717969</v>
       </c>
       <c r="O22" t="n">
-        <v>32.63489410613615</v>
+        <v>32.63489410613614</v>
       </c>
       <c r="P22" t="n">
-        <v>27.92478975997138</v>
+        <v>27.92478975997137</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.33367697527785</v>
+        <v>19.33367697527784</v>
       </c>
       <c r="R22" t="n">
         <v>10.38154014979092</v>
       </c>
       <c r="S22" t="n">
-        <v>4.02373887326106</v>
+        <v>4.023738873261059</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9865191812377142</v>
+        <v>0.986519181237714</v>
       </c>
       <c r="U22" t="n">
         <v>0.01259386188814105</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5147240034684103</v>
+        <v>0.5147240034684105</v>
       </c>
       <c r="H26" t="n">
-        <v>5.271417200520858</v>
+        <v>5.27141720052086</v>
       </c>
       <c r="I26" t="n">
         <v>19.84389714371591</v>
       </c>
       <c r="J26" t="n">
-        <v>43.68655638937702</v>
+        <v>43.68655638937705</v>
       </c>
       <c r="K26" t="n">
-        <v>65.47482345619484</v>
+        <v>65.47482345619487</v>
       </c>
       <c r="L26" t="n">
-        <v>81.22730817734121</v>
+        <v>81.22730817734126</v>
       </c>
       <c r="M26" t="n">
-        <v>90.38103117402255</v>
+        <v>90.3810311740226</v>
       </c>
       <c r="N26" t="n">
-        <v>91.84349074887719</v>
+        <v>91.84349074887723</v>
       </c>
       <c r="O26" t="n">
-        <v>86.72520393938818</v>
+        <v>86.72520393938821</v>
       </c>
       <c r="P26" t="n">
-        <v>74.01795510376179</v>
+        <v>74.01795510376182</v>
       </c>
       <c r="Q26" t="n">
-        <v>55.58440172954933</v>
+        <v>55.58440172954935</v>
       </c>
       <c r="R26" t="n">
-        <v>32.33303168287255</v>
+        <v>32.33303168287257</v>
       </c>
       <c r="S26" t="n">
-        <v>11.72927322903641</v>
+        <v>11.72927322903642</v>
       </c>
       <c r="T26" t="n">
-        <v>2.253204325182967</v>
+        <v>2.253204325182968</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04117792027747282</v>
+        <v>0.04117792027747283</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2754016212897256</v>
+        <v>0.2754016212897257</v>
       </c>
       <c r="H27" t="n">
-        <v>2.659799868771824</v>
+        <v>2.659799868771825</v>
       </c>
       <c r="I27" t="n">
-        <v>9.482029504931342</v>
+        <v>9.482029504931347</v>
       </c>
       <c r="J27" t="n">
-        <v>26.01941370264026</v>
+        <v>26.01941370264027</v>
       </c>
       <c r="K27" t="n">
-        <v>44.47132232905187</v>
+        <v>44.47132232905189</v>
       </c>
       <c r="L27" t="n">
-        <v>59.79718097345555</v>
+        <v>59.79718097345557</v>
       </c>
       <c r="M27" t="n">
-        <v>69.78048974520809</v>
+        <v>69.78048974520811</v>
       </c>
       <c r="N27" t="n">
-        <v>71.62737167043613</v>
+        <v>71.62737167043616</v>
       </c>
       <c r="O27" t="n">
-        <v>65.52505153554273</v>
+        <v>65.52505153554276</v>
       </c>
       <c r="P27" t="n">
-        <v>52.58963064785997</v>
+        <v>52.58963064785999</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.15477537726392</v>
+        <v>35.15477537726394</v>
       </c>
       <c r="R27" t="n">
-        <v>17.09905855691823</v>
+        <v>17.09905855691824</v>
       </c>
       <c r="S27" t="n">
-        <v>5.115464325271873</v>
+        <v>5.115464325271875</v>
       </c>
       <c r="T27" t="n">
-        <v>1.110061798093235</v>
+        <v>1.110061798093236</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01811852771642932</v>
+        <v>0.01811852771642933</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2308874679492522</v>
+        <v>0.2308874679492523</v>
       </c>
       <c r="H28" t="n">
-        <v>2.052799487766989</v>
+        <v>2.05279948776699</v>
       </c>
       <c r="I28" t="n">
-        <v>6.943415854328423</v>
+        <v>6.943415854328427</v>
       </c>
       <c r="J28" t="n">
-        <v>16.32374398401213</v>
+        <v>16.32374398401214</v>
       </c>
       <c r="K28" t="n">
-        <v>26.82492582174039</v>
+        <v>26.8249258217404</v>
       </c>
       <c r="L28" t="n">
-        <v>34.32666955310974</v>
+        <v>34.32666955310975</v>
       </c>
       <c r="M28" t="n">
-        <v>36.19266008953596</v>
+        <v>36.19266008953598</v>
       </c>
       <c r="N28" t="n">
-        <v>35.33207952717968</v>
+        <v>35.3320795271797</v>
       </c>
       <c r="O28" t="n">
-        <v>32.63489410613613</v>
+        <v>32.63489410613615</v>
       </c>
       <c r="P28" t="n">
-        <v>27.92478975997136</v>
+        <v>27.92478975997138</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.33367697527784</v>
+        <v>19.33367697527785</v>
       </c>
       <c r="R28" t="n">
         <v>10.38154014979092</v>
       </c>
       <c r="S28" t="n">
-        <v>4.023738873261058</v>
+        <v>4.02373887326106</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9865191812377138</v>
+        <v>0.9865191812377142</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01259386188814104</v>
+        <v>0.01259386188814105</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5147240034684103</v>
+        <v>0.5147240034684105</v>
       </c>
       <c r="H29" t="n">
-        <v>5.271417200520858</v>
+        <v>5.27141720052086</v>
       </c>
       <c r="I29" t="n">
         <v>19.84389714371591</v>
       </c>
       <c r="J29" t="n">
-        <v>43.68655638937702</v>
+        <v>43.68655638937705</v>
       </c>
       <c r="K29" t="n">
-        <v>65.47482345619484</v>
+        <v>65.47482345619487</v>
       </c>
       <c r="L29" t="n">
-        <v>81.22730817734121</v>
+        <v>81.22730817734126</v>
       </c>
       <c r="M29" t="n">
-        <v>90.38103117402255</v>
+        <v>90.3810311740226</v>
       </c>
       <c r="N29" t="n">
-        <v>91.84349074887719</v>
+        <v>91.84349074887723</v>
       </c>
       <c r="O29" t="n">
-        <v>86.72520393938818</v>
+        <v>86.72520393938821</v>
       </c>
       <c r="P29" t="n">
-        <v>74.01795510376179</v>
+        <v>74.01795510376182</v>
       </c>
       <c r="Q29" t="n">
-        <v>55.58440172954933</v>
+        <v>55.58440172954935</v>
       </c>
       <c r="R29" t="n">
-        <v>32.33303168287255</v>
+        <v>32.33303168287257</v>
       </c>
       <c r="S29" t="n">
-        <v>11.72927322903641</v>
+        <v>11.72927322903642</v>
       </c>
       <c r="T29" t="n">
-        <v>2.253204325182967</v>
+        <v>2.253204325182968</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04117792027747282</v>
+        <v>0.04117792027747283</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2754016212897256</v>
+        <v>0.2754016212897257</v>
       </c>
       <c r="H30" t="n">
-        <v>2.659799868771824</v>
+        <v>2.659799868771825</v>
       </c>
       <c r="I30" t="n">
-        <v>9.482029504931342</v>
+        <v>9.482029504931347</v>
       </c>
       <c r="J30" t="n">
-        <v>26.01941370264026</v>
+        <v>26.01941370264027</v>
       </c>
       <c r="K30" t="n">
-        <v>44.47132232905187</v>
+        <v>44.47132232905189</v>
       </c>
       <c r="L30" t="n">
-        <v>59.79718097345555</v>
+        <v>59.79718097345557</v>
       </c>
       <c r="M30" t="n">
-        <v>69.78048974520809</v>
+        <v>69.78048974520811</v>
       </c>
       <c r="N30" t="n">
-        <v>71.62737167043613</v>
+        <v>71.62737167043616</v>
       </c>
       <c r="O30" t="n">
-        <v>65.52505153554273</v>
+        <v>65.52505153554276</v>
       </c>
       <c r="P30" t="n">
-        <v>52.58963064785997</v>
+        <v>52.58963064785999</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.15477537726392</v>
+        <v>35.15477537726394</v>
       </c>
       <c r="R30" t="n">
-        <v>17.09905855691823</v>
+        <v>17.09905855691824</v>
       </c>
       <c r="S30" t="n">
-        <v>5.115464325271873</v>
+        <v>5.115464325271875</v>
       </c>
       <c r="T30" t="n">
-        <v>1.110061798093235</v>
+        <v>1.110061798093236</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01811852771642932</v>
+        <v>0.01811852771642933</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2308874679492522</v>
+        <v>0.2308874679492523</v>
       </c>
       <c r="H31" t="n">
-        <v>2.052799487766989</v>
+        <v>2.05279948776699</v>
       </c>
       <c r="I31" t="n">
-        <v>6.943415854328423</v>
+        <v>6.943415854328427</v>
       </c>
       <c r="J31" t="n">
-        <v>16.32374398401213</v>
+        <v>16.32374398401214</v>
       </c>
       <c r="K31" t="n">
-        <v>26.82492582174039</v>
+        <v>26.8249258217404</v>
       </c>
       <c r="L31" t="n">
-        <v>34.32666955310974</v>
+        <v>34.32666955310975</v>
       </c>
       <c r="M31" t="n">
-        <v>36.19266008953596</v>
+        <v>36.19266008953598</v>
       </c>
       <c r="N31" t="n">
-        <v>35.33207952717968</v>
+        <v>35.3320795271797</v>
       </c>
       <c r="O31" t="n">
-        <v>32.63489410613613</v>
+        <v>32.63489410613615</v>
       </c>
       <c r="P31" t="n">
-        <v>27.92478975997136</v>
+        <v>27.92478975997138</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.33367697527784</v>
+        <v>19.33367697527785</v>
       </c>
       <c r="R31" t="n">
         <v>10.38154014979092</v>
       </c>
       <c r="S31" t="n">
-        <v>4.023738873261058</v>
+        <v>4.02373887326106</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9865191812377138</v>
+        <v>0.9865191812377142</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01259386188814104</v>
+        <v>0.01259386188814105</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5147240034684103</v>
+        <v>0.5147240034684105</v>
       </c>
       <c r="H32" t="n">
-        <v>5.271417200520858</v>
+        <v>5.27141720052086</v>
       </c>
       <c r="I32" t="n">
         <v>19.84389714371591</v>
       </c>
       <c r="J32" t="n">
-        <v>43.68655638937702</v>
+        <v>43.68655638937705</v>
       </c>
       <c r="K32" t="n">
-        <v>65.47482345619484</v>
+        <v>65.47482345619487</v>
       </c>
       <c r="L32" t="n">
-        <v>81.22730817734121</v>
+        <v>81.22730817734126</v>
       </c>
       <c r="M32" t="n">
-        <v>90.38103117402255</v>
+        <v>90.3810311740226</v>
       </c>
       <c r="N32" t="n">
-        <v>91.84349074887719</v>
+        <v>91.84349074887723</v>
       </c>
       <c r="O32" t="n">
-        <v>86.72520393938818</v>
+        <v>86.72520393938821</v>
       </c>
       <c r="P32" t="n">
-        <v>74.01795510376179</v>
+        <v>74.01795510376182</v>
       </c>
       <c r="Q32" t="n">
-        <v>55.58440172954933</v>
+        <v>55.58440172954935</v>
       </c>
       <c r="R32" t="n">
-        <v>32.33303168287255</v>
+        <v>32.33303168287257</v>
       </c>
       <c r="S32" t="n">
-        <v>11.72927322903641</v>
+        <v>11.72927322903642</v>
       </c>
       <c r="T32" t="n">
-        <v>2.253204325182967</v>
+        <v>2.253204325182968</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04117792027747282</v>
+        <v>0.04117792027747283</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2754016212897256</v>
+        <v>0.2754016212897257</v>
       </c>
       <c r="H33" t="n">
-        <v>2.659799868771824</v>
+        <v>2.659799868771825</v>
       </c>
       <c r="I33" t="n">
-        <v>9.482029504931342</v>
+        <v>9.482029504931347</v>
       </c>
       <c r="J33" t="n">
-        <v>26.01941370264026</v>
+        <v>26.01941370264027</v>
       </c>
       <c r="K33" t="n">
-        <v>44.47132232905187</v>
+        <v>44.47132232905189</v>
       </c>
       <c r="L33" t="n">
-        <v>59.79718097345555</v>
+        <v>59.79718097345557</v>
       </c>
       <c r="M33" t="n">
-        <v>69.78048974520809</v>
+        <v>69.78048974520811</v>
       </c>
       <c r="N33" t="n">
-        <v>71.62737167043613</v>
+        <v>71.62737167043616</v>
       </c>
       <c r="O33" t="n">
-        <v>65.52505153554273</v>
+        <v>65.52505153554276</v>
       </c>
       <c r="P33" t="n">
-        <v>52.58963064785997</v>
+        <v>52.58963064785999</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.15477537726392</v>
+        <v>35.15477537726394</v>
       </c>
       <c r="R33" t="n">
-        <v>17.09905855691823</v>
+        <v>17.09905855691824</v>
       </c>
       <c r="S33" t="n">
-        <v>5.115464325271873</v>
+        <v>5.115464325271875</v>
       </c>
       <c r="T33" t="n">
-        <v>1.110061798093235</v>
+        <v>1.110061798093236</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01811852771642932</v>
+        <v>0.01811852771642933</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2308874679492522</v>
+        <v>0.2308874679492523</v>
       </c>
       <c r="H34" t="n">
-        <v>2.052799487766989</v>
+        <v>2.05279948776699</v>
       </c>
       <c r="I34" t="n">
-        <v>6.943415854328423</v>
+        <v>6.943415854328427</v>
       </c>
       <c r="J34" t="n">
-        <v>16.32374398401213</v>
+        <v>16.32374398401214</v>
       </c>
       <c r="K34" t="n">
-        <v>26.82492582174039</v>
+        <v>26.8249258217404</v>
       </c>
       <c r="L34" t="n">
-        <v>34.32666955310974</v>
+        <v>34.32666955310975</v>
       </c>
       <c r="M34" t="n">
-        <v>36.19266008953596</v>
+        <v>36.19266008953598</v>
       </c>
       <c r="N34" t="n">
-        <v>35.33207952717968</v>
+        <v>35.3320795271797</v>
       </c>
       <c r="O34" t="n">
-        <v>32.63489410613613</v>
+        <v>32.63489410613615</v>
       </c>
       <c r="P34" t="n">
-        <v>27.92478975997136</v>
+        <v>27.92478975997138</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.33367697527784</v>
+        <v>19.33367697527785</v>
       </c>
       <c r="R34" t="n">
         <v>10.38154014979092</v>
       </c>
       <c r="S34" t="n">
-        <v>4.023738873261058</v>
+        <v>4.02373887326106</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9865191812377138</v>
+        <v>0.9865191812377142</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01259386188814104</v>
+        <v>0.01259386188814105</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5147240034684103</v>
+        <v>0.5147240034684105</v>
       </c>
       <c r="H35" t="n">
-        <v>5.271417200520858</v>
+        <v>5.27141720052086</v>
       </c>
       <c r="I35" t="n">
         <v>19.84389714371591</v>
       </c>
       <c r="J35" t="n">
-        <v>43.68655638937702</v>
+        <v>43.68655638937705</v>
       </c>
       <c r="K35" t="n">
-        <v>65.47482345619484</v>
+        <v>65.47482345619487</v>
       </c>
       <c r="L35" t="n">
-        <v>81.22730817734121</v>
+        <v>81.22730817734126</v>
       </c>
       <c r="M35" t="n">
-        <v>90.38103117402255</v>
+        <v>90.3810311740226</v>
       </c>
       <c r="N35" t="n">
-        <v>91.84349074887719</v>
+        <v>91.84349074887723</v>
       </c>
       <c r="O35" t="n">
-        <v>86.72520393938818</v>
+        <v>86.72520393938821</v>
       </c>
       <c r="P35" t="n">
-        <v>74.01795510376179</v>
+        <v>74.01795510376182</v>
       </c>
       <c r="Q35" t="n">
-        <v>55.58440172954933</v>
+        <v>55.58440172954935</v>
       </c>
       <c r="R35" t="n">
-        <v>32.33303168287255</v>
+        <v>32.33303168287257</v>
       </c>
       <c r="S35" t="n">
-        <v>11.72927322903641</v>
+        <v>11.72927322903642</v>
       </c>
       <c r="T35" t="n">
-        <v>2.253204325182967</v>
+        <v>2.253204325182968</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04117792027747282</v>
+        <v>0.04117792027747283</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2754016212897256</v>
+        <v>0.2754016212897257</v>
       </c>
       <c r="H36" t="n">
-        <v>2.659799868771824</v>
+        <v>2.659799868771825</v>
       </c>
       <c r="I36" t="n">
-        <v>9.482029504931342</v>
+        <v>9.482029504931347</v>
       </c>
       <c r="J36" t="n">
-        <v>26.01941370264026</v>
+        <v>26.01941370264027</v>
       </c>
       <c r="K36" t="n">
-        <v>44.47132232905187</v>
+        <v>44.47132232905189</v>
       </c>
       <c r="L36" t="n">
-        <v>59.79718097345555</v>
+        <v>59.79718097345557</v>
       </c>
       <c r="M36" t="n">
-        <v>69.78048974520809</v>
+        <v>69.78048974520811</v>
       </c>
       <c r="N36" t="n">
-        <v>71.62737167043613</v>
+        <v>71.62737167043616</v>
       </c>
       <c r="O36" t="n">
-        <v>65.52505153554273</v>
+        <v>65.52505153554276</v>
       </c>
       <c r="P36" t="n">
-        <v>52.58963064785997</v>
+        <v>52.58963064785999</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.15477537726392</v>
+        <v>35.15477537726394</v>
       </c>
       <c r="R36" t="n">
-        <v>17.09905855691823</v>
+        <v>17.09905855691824</v>
       </c>
       <c r="S36" t="n">
-        <v>5.115464325271873</v>
+        <v>5.115464325271875</v>
       </c>
       <c r="T36" t="n">
-        <v>1.110061798093235</v>
+        <v>1.110061798093236</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01811852771642932</v>
+        <v>0.01811852771642933</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2308874679492522</v>
+        <v>0.2308874679492523</v>
       </c>
       <c r="H37" t="n">
-        <v>2.052799487766989</v>
+        <v>2.05279948776699</v>
       </c>
       <c r="I37" t="n">
-        <v>6.943415854328423</v>
+        <v>6.943415854328427</v>
       </c>
       <c r="J37" t="n">
-        <v>16.32374398401213</v>
+        <v>16.32374398401214</v>
       </c>
       <c r="K37" t="n">
-        <v>26.82492582174039</v>
+        <v>26.8249258217404</v>
       </c>
       <c r="L37" t="n">
-        <v>34.32666955310974</v>
+        <v>34.32666955310975</v>
       </c>
       <c r="M37" t="n">
-        <v>36.19266008953596</v>
+        <v>36.19266008953598</v>
       </c>
       <c r="N37" t="n">
-        <v>35.33207952717968</v>
+        <v>35.3320795271797</v>
       </c>
       <c r="O37" t="n">
-        <v>32.63489410613613</v>
+        <v>32.63489410613615</v>
       </c>
       <c r="P37" t="n">
-        <v>27.92478975997136</v>
+        <v>27.92478975997138</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.33367697527784</v>
+        <v>19.33367697527785</v>
       </c>
       <c r="R37" t="n">
         <v>10.38154014979092</v>
       </c>
       <c r="S37" t="n">
-        <v>4.023738873261058</v>
+        <v>4.02373887326106</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9865191812377138</v>
+        <v>0.9865191812377142</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01259386188814104</v>
+        <v>0.01259386188814105</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5147240034684103</v>
+        <v>0.5147240034684105</v>
       </c>
       <c r="H38" t="n">
-        <v>5.271417200520858</v>
+        <v>5.27141720052086</v>
       </c>
       <c r="I38" t="n">
         <v>19.84389714371591</v>
       </c>
       <c r="J38" t="n">
-        <v>43.68655638937702</v>
+        <v>43.68655638937705</v>
       </c>
       <c r="K38" t="n">
-        <v>65.47482345619484</v>
+        <v>65.47482345619487</v>
       </c>
       <c r="L38" t="n">
-        <v>81.22730817734121</v>
+        <v>81.22730817734126</v>
       </c>
       <c r="M38" t="n">
-        <v>90.38103117402255</v>
+        <v>90.3810311740226</v>
       </c>
       <c r="N38" t="n">
-        <v>91.84349074887719</v>
+        <v>91.84349074887723</v>
       </c>
       <c r="O38" t="n">
-        <v>86.72520393938818</v>
+        <v>86.72520393938821</v>
       </c>
       <c r="P38" t="n">
-        <v>74.01795510376179</v>
+        <v>74.01795510376182</v>
       </c>
       <c r="Q38" t="n">
-        <v>55.58440172954933</v>
+        <v>55.58440172954935</v>
       </c>
       <c r="R38" t="n">
-        <v>32.33303168287255</v>
+        <v>32.33303168287257</v>
       </c>
       <c r="S38" t="n">
-        <v>11.72927322903641</v>
+        <v>11.72927322903642</v>
       </c>
       <c r="T38" t="n">
-        <v>2.253204325182967</v>
+        <v>2.253204325182968</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04117792027747282</v>
+        <v>0.04117792027747283</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2754016212897256</v>
+        <v>0.2754016212897257</v>
       </c>
       <c r="H39" t="n">
-        <v>2.659799868771824</v>
+        <v>2.659799868771825</v>
       </c>
       <c r="I39" t="n">
-        <v>9.482029504931342</v>
+        <v>9.482029504931347</v>
       </c>
       <c r="J39" t="n">
-        <v>26.01941370264026</v>
+        <v>26.01941370264027</v>
       </c>
       <c r="K39" t="n">
-        <v>44.47132232905187</v>
+        <v>44.47132232905189</v>
       </c>
       <c r="L39" t="n">
-        <v>59.79718097345555</v>
+        <v>59.79718097345557</v>
       </c>
       <c r="M39" t="n">
-        <v>69.78048974520809</v>
+        <v>69.78048974520811</v>
       </c>
       <c r="N39" t="n">
-        <v>71.62737167043613</v>
+        <v>71.62737167043616</v>
       </c>
       <c r="O39" t="n">
-        <v>65.52505153554273</v>
+        <v>65.52505153554276</v>
       </c>
       <c r="P39" t="n">
-        <v>52.58963064785997</v>
+        <v>52.58963064785999</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.15477537726392</v>
+        <v>35.15477537726394</v>
       </c>
       <c r="R39" t="n">
-        <v>17.09905855691823</v>
+        <v>17.09905855691824</v>
       </c>
       <c r="S39" t="n">
-        <v>5.115464325271873</v>
+        <v>5.115464325271875</v>
       </c>
       <c r="T39" t="n">
-        <v>1.110061798093235</v>
+        <v>1.110061798093236</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01811852771642932</v>
+        <v>0.01811852771642933</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2308874679492522</v>
+        <v>0.2308874679492523</v>
       </c>
       <c r="H40" t="n">
-        <v>2.052799487766989</v>
+        <v>2.05279948776699</v>
       </c>
       <c r="I40" t="n">
-        <v>6.943415854328423</v>
+        <v>6.943415854328427</v>
       </c>
       <c r="J40" t="n">
-        <v>16.32374398401213</v>
+        <v>16.32374398401214</v>
       </c>
       <c r="K40" t="n">
-        <v>26.82492582174039</v>
+        <v>26.8249258217404</v>
       </c>
       <c r="L40" t="n">
-        <v>34.32666955310974</v>
+        <v>34.32666955310975</v>
       </c>
       <c r="M40" t="n">
-        <v>36.19266008953596</v>
+        <v>36.19266008953598</v>
       </c>
       <c r="N40" t="n">
-        <v>35.33207952717968</v>
+        <v>35.3320795271797</v>
       </c>
       <c r="O40" t="n">
-        <v>32.63489410613613</v>
+        <v>32.63489410613615</v>
       </c>
       <c r="P40" t="n">
-        <v>27.92478975997136</v>
+        <v>27.92478975997138</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.33367697527784</v>
+        <v>19.33367697527785</v>
       </c>
       <c r="R40" t="n">
         <v>10.38154014979092</v>
       </c>
       <c r="S40" t="n">
-        <v>4.023738873261058</v>
+        <v>4.02373887326106</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9865191812377138</v>
+        <v>0.9865191812377142</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01259386188814104</v>
+        <v>0.01259386188814105</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5147240034684103</v>
+        <v>0.5147240034684105</v>
       </c>
       <c r="H41" t="n">
-        <v>5.271417200520858</v>
+        <v>5.27141720052086</v>
       </c>
       <c r="I41" t="n">
         <v>19.84389714371591</v>
       </c>
       <c r="J41" t="n">
-        <v>43.68655638937702</v>
+        <v>43.68655638937705</v>
       </c>
       <c r="K41" t="n">
-        <v>65.47482345619484</v>
+        <v>65.47482345619487</v>
       </c>
       <c r="L41" t="n">
-        <v>81.22730817734121</v>
+        <v>81.22730817734126</v>
       </c>
       <c r="M41" t="n">
-        <v>90.38103117402255</v>
+        <v>90.3810311740226</v>
       </c>
       <c r="N41" t="n">
-        <v>91.84349074887719</v>
+        <v>91.84349074887723</v>
       </c>
       <c r="O41" t="n">
-        <v>86.72520393938818</v>
+        <v>86.72520393938821</v>
       </c>
       <c r="P41" t="n">
-        <v>74.01795510376179</v>
+        <v>74.01795510376182</v>
       </c>
       <c r="Q41" t="n">
-        <v>55.58440172954933</v>
+        <v>55.58440172954935</v>
       </c>
       <c r="R41" t="n">
-        <v>32.33303168287255</v>
+        <v>32.33303168287257</v>
       </c>
       <c r="S41" t="n">
-        <v>11.72927322903641</v>
+        <v>11.72927322903642</v>
       </c>
       <c r="T41" t="n">
-        <v>2.253204325182967</v>
+        <v>2.253204325182968</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04117792027747282</v>
+        <v>0.04117792027747283</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2754016212897256</v>
+        <v>0.2754016212897257</v>
       </c>
       <c r="H42" t="n">
-        <v>2.659799868771824</v>
+        <v>2.659799868771825</v>
       </c>
       <c r="I42" t="n">
-        <v>9.482029504931342</v>
+        <v>9.482029504931347</v>
       </c>
       <c r="J42" t="n">
-        <v>26.01941370264026</v>
+        <v>26.01941370264027</v>
       </c>
       <c r="K42" t="n">
-        <v>44.47132232905187</v>
+        <v>44.47132232905189</v>
       </c>
       <c r="L42" t="n">
-        <v>59.79718097345555</v>
+        <v>59.79718097345557</v>
       </c>
       <c r="M42" t="n">
-        <v>69.78048974520809</v>
+        <v>69.78048974520811</v>
       </c>
       <c r="N42" t="n">
-        <v>71.62737167043613</v>
+        <v>71.62737167043616</v>
       </c>
       <c r="O42" t="n">
-        <v>65.52505153554273</v>
+        <v>65.52505153554276</v>
       </c>
       <c r="P42" t="n">
-        <v>52.58963064785997</v>
+        <v>52.58963064785999</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.15477537726392</v>
+        <v>35.15477537726394</v>
       </c>
       <c r="R42" t="n">
-        <v>17.09905855691823</v>
+        <v>17.09905855691824</v>
       </c>
       <c r="S42" t="n">
-        <v>5.115464325271873</v>
+        <v>5.115464325271875</v>
       </c>
       <c r="T42" t="n">
-        <v>1.110061798093235</v>
+        <v>1.110061798093236</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01811852771642932</v>
+        <v>0.01811852771642933</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2308874679492522</v>
+        <v>0.2308874679492523</v>
       </c>
       <c r="H43" t="n">
-        <v>2.052799487766989</v>
+        <v>2.05279948776699</v>
       </c>
       <c r="I43" t="n">
-        <v>6.943415854328423</v>
+        <v>6.943415854328427</v>
       </c>
       <c r="J43" t="n">
-        <v>16.32374398401213</v>
+        <v>16.32374398401214</v>
       </c>
       <c r="K43" t="n">
-        <v>26.82492582174039</v>
+        <v>26.8249258217404</v>
       </c>
       <c r="L43" t="n">
-        <v>34.32666955310974</v>
+        <v>34.32666955310975</v>
       </c>
       <c r="M43" t="n">
-        <v>36.19266008953596</v>
+        <v>36.19266008953598</v>
       </c>
       <c r="N43" t="n">
-        <v>35.33207952717968</v>
+        <v>35.3320795271797</v>
       </c>
       <c r="O43" t="n">
-        <v>32.63489410613613</v>
+        <v>32.63489410613615</v>
       </c>
       <c r="P43" t="n">
-        <v>27.92478975997136</v>
+        <v>27.92478975997138</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.33367697527784</v>
+        <v>19.33367697527785</v>
       </c>
       <c r="R43" t="n">
         <v>10.38154014979092</v>
       </c>
       <c r="S43" t="n">
-        <v>4.023738873261058</v>
+        <v>4.02373887326106</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9865191812377138</v>
+        <v>0.9865191812377142</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01259386188814104</v>
+        <v>0.01259386188814105</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>30.80200519947019</v>
       </c>
       <c r="P9" t="n">
         <v>39.88136420416884</v>
       </c>
       <c r="Q9" t="n">
-        <v>38.26999595349533</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>33.48740445666542</v>
       </c>
       <c r="K12" t="n">
-        <v>185.1197658221336</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>310.3806198036758</v>
@@ -35498,16 +35498,16 @@
         <v>415.5330729712402</v>
       </c>
       <c r="N12" t="n">
-        <v>422.8548988334673</v>
+        <v>422.8548988334674</v>
       </c>
       <c r="O12" t="n">
-        <v>87.2803286814158</v>
+        <v>336.1105252500081</v>
       </c>
       <c r="P12" t="n">
-        <v>253.1658628044226</v>
+        <v>38.81510271262276</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>117.152924888676</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.69613915520433</v>
+        <v>49.69613915520423</v>
       </c>
       <c r="K13" t="n">
-        <v>134.2617562028782</v>
+        <v>134.2617562028781</v>
       </c>
       <c r="L13" t="n">
-        <v>193.9990398810902</v>
+        <v>193.9990398810901</v>
       </c>
       <c r="M13" t="n">
-        <v>208.6013081854157</v>
+        <v>208.6013081854156</v>
       </c>
       <c r="N13" t="n">
-        <v>211.7403392907887</v>
+        <v>211.7403392907886</v>
       </c>
       <c r="O13" t="n">
-        <v>189.4143422350783</v>
+        <v>189.4143422350782</v>
       </c>
       <c r="P13" t="n">
-        <v>156.2580517576263</v>
+        <v>156.2580517576262</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.7842171984008</v>
+        <v>61.7842171984007</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.6961391552043</v>
+        <v>49.69613915520429</v>
       </c>
       <c r="K16" t="n">
         <v>134.2617562028781</v>
@@ -35823,7 +35823,7 @@
         <v>156.2580517576263</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.78421719840077</v>
+        <v>61.78421719840075</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>185.1197658221336</v>
       </c>
       <c r="L18" t="n">
         <v>310.3806198036758</v>
@@ -35975,13 +35975,13 @@
         <v>422.8548988334674</v>
       </c>
       <c r="O18" t="n">
-        <v>272.4000945035496</v>
+        <v>223.2932665971627</v>
       </c>
       <c r="P18" t="n">
-        <v>253.1658628044226</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>117.152924888676</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.02727925481463</v>
+        <v>43.02727925481462</v>
       </c>
       <c r="K20" t="n">
         <v>187.9984477613502</v>
@@ -36136,7 +36136,7 @@
         <v>258.4116363164988</v>
       </c>
       <c r="P20" t="n">
-        <v>183.236440740716</v>
+        <v>183.2364407407159</v>
       </c>
       <c r="Q20" t="n">
         <v>59.64394438826196</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>185.1197658221336</v>
       </c>
       <c r="L21" t="n">
-        <v>246.6701890572173</v>
+        <v>61.55042323508365</v>
       </c>
       <c r="M21" t="n">
         <v>415.5330729712402</v>
@@ -36279,19 +36279,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>12.05051610390705</v>
+        <v>12.05051610390704</v>
       </c>
       <c r="L22" t="n">
         <v>71.78779978211904</v>
       </c>
       <c r="M22" t="n">
-        <v>86.39006808644454</v>
+        <v>86.39006808644453</v>
       </c>
       <c r="N22" t="n">
-        <v>89.52909919181759</v>
+        <v>89.52909919181758</v>
       </c>
       <c r="O22" t="n">
-        <v>67.20310213610722</v>
+        <v>67.20310213610719</v>
       </c>
       <c r="P22" t="n">
         <v>34.04681165865522</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>185.1197658221336</v>
       </c>
       <c r="L24" t="n">
-        <v>246.6701890572168</v>
+        <v>310.3806198036758</v>
       </c>
       <c r="M24" t="n">
         <v>415.5330729712402</v>
       </c>
       <c r="N24" t="n">
-        <v>422.8548988334672</v>
+        <v>174.0247022648751</v>
       </c>
       <c r="O24" t="n">
         <v>336.1105252500081</v>
@@ -36595,19 +36595,19 @@
         <v>185.7393664548986</v>
       </c>
       <c r="K26" t="n">
-        <v>330.7105349614342</v>
+        <v>330.7105349614341</v>
       </c>
       <c r="L26" t="n">
         <v>428.4348039141561</v>
       </c>
       <c r="M26" t="n">
-        <v>475.9996158100614</v>
+        <v>475.9996158100615</v>
       </c>
       <c r="N26" t="n">
         <v>465.7186423307485</v>
       </c>
       <c r="O26" t="n">
-        <v>401.1237235165828</v>
+        <v>401.1237235165827</v>
       </c>
       <c r="P26" t="n">
         <v>325.9485279407999</v>
@@ -36616,7 +36616,7 @@
         <v>202.3560315883459</v>
       </c>
       <c r="R26" t="n">
-        <v>33.19429618207946</v>
+        <v>33.19429618207943</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>33.48740445666542</v>
       </c>
       <c r="K27" t="n">
-        <v>185.1197658221336</v>
+        <v>185.1197658221337</v>
       </c>
       <c r="L27" t="n">
         <v>310.3806198036758</v>
       </c>
       <c r="M27" t="n">
-        <v>415.5330729712401</v>
+        <v>415.5330729712402</v>
       </c>
       <c r="N27" t="n">
         <v>442.0852717064818</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>70.19698625631716</v>
+        <v>70.19698625631715</v>
       </c>
       <c r="K28" t="n">
         <v>154.762603303991</v>
@@ -36759,16 +36759,16 @@
         <v>214.499886982203</v>
       </c>
       <c r="M28" t="n">
-        <v>103.3559501012305</v>
+        <v>103.3559501012309</v>
       </c>
       <c r="N28" t="n">
-        <v>89.52909919181758</v>
+        <v>232.2411863919015</v>
       </c>
       <c r="O28" t="n">
-        <v>209.9151893361912</v>
+        <v>67.20310213610722</v>
       </c>
       <c r="P28" t="n">
-        <v>34.0468116586552</v>
+        <v>34.04681165865522</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>185.7393664548986</v>
+        <v>185.7393664548985</v>
       </c>
       <c r="K29" t="n">
         <v>330.7105349614341</v>
       </c>
       <c r="L29" t="n">
-        <v>428.4348039141561</v>
+        <v>428.434803914156</v>
       </c>
       <c r="M29" t="n">
-        <v>475.9996158100615</v>
+        <v>475.9996158100614</v>
       </c>
       <c r="N29" t="n">
         <v>465.7186423307485</v>
@@ -36853,7 +36853,7 @@
         <v>202.3560315883459</v>
       </c>
       <c r="R29" t="n">
-        <v>33.19429618207946</v>
+        <v>33.1942961820794</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>33.48740445666542</v>
       </c>
       <c r="K30" t="n">
-        <v>185.1197658221336</v>
+        <v>185.1197658221337</v>
       </c>
       <c r="L30" t="n">
         <v>310.3806198036758</v>
       </c>
       <c r="M30" t="n">
-        <v>415.5330729712401</v>
+        <v>415.5330729712402</v>
       </c>
       <c r="N30" t="n">
         <v>442.0852717064818</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>70.19698625631716</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>154.762603303991</v>
       </c>
       <c r="L31" t="n">
-        <v>214.499886982203</v>
+        <v>71.78779978211904</v>
       </c>
       <c r="M31" t="n">
-        <v>229.1021552865285</v>
+        <v>229.1021552865284</v>
       </c>
       <c r="N31" t="n">
-        <v>106.4949812066036</v>
+        <v>89.52909919181759</v>
       </c>
       <c r="O31" t="n">
-        <v>67.20310213610719</v>
+        <v>72.08090610769779</v>
       </c>
       <c r="P31" t="n">
-        <v>34.0468116586552</v>
+        <v>176.7588988587391</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>82.28506429951358</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>196.0574730018011</v>
+        <v>196.0574730018012</v>
       </c>
       <c r="K32" t="n">
-        <v>341.0286415083366</v>
+        <v>187.9984477613502</v>
       </c>
       <c r="L32" t="n">
-        <v>285.7227167140721</v>
+        <v>341.0060567199205</v>
       </c>
       <c r="M32" t="n">
-        <v>486.317722356964</v>
+        <v>486.3177223569641</v>
       </c>
       <c r="N32" t="n">
-        <v>476.036748877651</v>
+        <v>476.0367488776511</v>
       </c>
       <c r="O32" t="n">
-        <v>411.4418300634853</v>
+        <v>411.4418300634854</v>
       </c>
       <c r="P32" t="n">
-        <v>238.5197807465645</v>
+        <v>336.2666344877025</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.6741381352484</v>
+        <v>212.6741381352485</v>
       </c>
       <c r="R32" t="n">
-        <v>43.51240272898198</v>
+        <v>43.51240272898202</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>33.48740445666542</v>
       </c>
       <c r="K33" t="n">
-        <v>185.1197658221336</v>
+        <v>185.1197658221337</v>
       </c>
       <c r="L33" t="n">
         <v>310.3806198036758</v>
       </c>
       <c r="M33" t="n">
-        <v>415.5330729712401</v>
+        <v>415.5330729712402</v>
       </c>
       <c r="N33" t="n">
         <v>442.0852717064818</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.51509280321969</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>148.9994693086469</v>
+        <v>12.05051610390705</v>
       </c>
       <c r="L34" t="n">
-        <v>224.8179935291055</v>
+        <v>196.6486749436615</v>
       </c>
       <c r="M34" t="n">
-        <v>86.39006808644453</v>
+        <v>239.4202618334311</v>
       </c>
       <c r="N34" t="n">
-        <v>89.52909919181758</v>
+        <v>89.52909919181759</v>
       </c>
       <c r="O34" t="n">
-        <v>67.20310213610719</v>
+        <v>67.20310213610722</v>
       </c>
       <c r="P34" t="n">
-        <v>34.0468116586552</v>
+        <v>34.04681165865522</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>92.60317084641619</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.222647088608909</v>
+        <v>7.222647088608831</v>
       </c>
       <c r="J35" t="n">
-        <v>235.6303370678316</v>
+        <v>43.02727925481463</v>
       </c>
       <c r="K35" t="n">
         <v>187.9984477613502</v>
@@ -37312,7 +37312,7 @@
         <v>285.7227167140721</v>
       </c>
       <c r="M35" t="n">
-        <v>333.2875286099775</v>
+        <v>469.0774557002881</v>
       </c>
       <c r="N35" t="n">
         <v>323.0065551306645</v>
@@ -37321,13 +37321,13 @@
         <v>258.4116363164988</v>
       </c>
       <c r="P35" t="n">
-        <v>183.2364407407159</v>
+        <v>183.236440740716</v>
       </c>
       <c r="Q35" t="n">
-        <v>195.4338714785712</v>
+        <v>252.2470022012789</v>
       </c>
       <c r="R35" t="n">
-        <v>83.0852667950125</v>
+        <v>83.08526679501242</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>33.48740445666542</v>
+        <v>33.48740445666578</v>
       </c>
       <c r="K36" t="n">
-        <v>185.1197658221336</v>
+        <v>185.1197658221337</v>
       </c>
       <c r="L36" t="n">
         <v>310.3806198036758</v>
       </c>
       <c r="M36" t="n">
-        <v>415.5330729712401</v>
+        <v>415.5330729712402</v>
       </c>
       <c r="N36" t="n">
         <v>442.0852717064818</v>
@@ -37446,7 +37446,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>13.8684815134737</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>12.05051610390704</v>
+        <v>12.05051610390705</v>
       </c>
       <c r="L37" t="n">
-        <v>71.78779978211902</v>
+        <v>71.78779978211904</v>
       </c>
       <c r="M37" t="n">
-        <v>100.2585495999178</v>
+        <v>86.39006808644454</v>
       </c>
       <c r="N37" t="n">
-        <v>89.52909919181758</v>
+        <v>89.52909919181759</v>
       </c>
       <c r="O37" t="n">
-        <v>67.20310213610719</v>
+        <v>67.20310213610722</v>
       </c>
       <c r="P37" t="n">
-        <v>34.0468116586552</v>
+        <v>34.04681165865522</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.222647088608909</v>
+        <v>7.222647088608831</v>
       </c>
       <c r="J38" t="n">
-        <v>43.02727925481461</v>
+        <v>235.6303370678316</v>
       </c>
       <c r="K38" t="n">
-        <v>187.9984477613502</v>
+        <v>323.7883748516606</v>
       </c>
       <c r="L38" t="n">
         <v>285.7227167140721</v>
@@ -37552,19 +37552,19 @@
         <v>333.2875286099775</v>
       </c>
       <c r="N38" t="n">
-        <v>458.7964822209741</v>
+        <v>323.0065551306645</v>
       </c>
       <c r="O38" t="n">
-        <v>451.0146941295158</v>
+        <v>258.4116363164988</v>
       </c>
       <c r="P38" t="n">
-        <v>183.2364407407159</v>
+        <v>183.236440740716</v>
       </c>
       <c r="Q38" t="n">
-        <v>59.64394438826194</v>
+        <v>59.64394438826196</v>
       </c>
       <c r="R38" t="n">
-        <v>83.0852667950125</v>
+        <v>83.08526679501242</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>33.48740445666537</v>
+        <v>33.48740445666542</v>
       </c>
       <c r="K39" t="n">
-        <v>185.1197658221336</v>
+        <v>185.1197658221337</v>
       </c>
       <c r="L39" t="n">
         <v>310.3806198036758</v>
       </c>
       <c r="M39" t="n">
-        <v>415.5330729712401</v>
+        <v>415.5330729712402</v>
       </c>
       <c r="N39" t="n">
         <v>442.0852717064818</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>13.86848151347326</v>
+        <v>13.8684815134737</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.05051610390704</v>
+        <v>12.05051610390705</v>
       </c>
       <c r="L40" t="n">
-        <v>71.78779978211902</v>
+        <v>71.78779978211904</v>
       </c>
       <c r="M40" t="n">
-        <v>86.39006808644453</v>
+        <v>86.39006808644454</v>
       </c>
       <c r="N40" t="n">
-        <v>89.52909919181758</v>
+        <v>89.52909919181759</v>
       </c>
       <c r="O40" t="n">
-        <v>67.20310213610719</v>
+        <v>67.20310213610722</v>
       </c>
       <c r="P40" t="n">
-        <v>34.0468116586552</v>
+        <v>34.04681165865522</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>7.222647088608909</v>
+        <v>7.222647088608916</v>
       </c>
       <c r="J41" t="n">
-        <v>235.6303370678316</v>
+        <v>178.8172063451242</v>
       </c>
       <c r="K41" t="n">
         <v>187.9984477613502</v>
@@ -37795,10 +37795,10 @@
         <v>258.4116363164988</v>
       </c>
       <c r="P41" t="n">
-        <v>183.2364407407159</v>
+        <v>183.236440740716</v>
       </c>
       <c r="Q41" t="n">
-        <v>195.4338714785712</v>
+        <v>252.247002201279</v>
       </c>
       <c r="R41" t="n">
         <v>83.0852667950125</v>
@@ -37859,13 +37859,13 @@
         <v>33.48740445666542</v>
       </c>
       <c r="K42" t="n">
-        <v>185.1197658221336</v>
+        <v>185.1197658221337</v>
       </c>
       <c r="L42" t="n">
         <v>310.3806198036758</v>
       </c>
       <c r="M42" t="n">
-        <v>415.5330729712401</v>
+        <v>415.5330729712402</v>
       </c>
       <c r="N42" t="n">
         <v>442.0852717064818</v>
@@ -37877,7 +37877,7 @@
         <v>253.1658628044226</v>
       </c>
       <c r="Q42" t="n">
-        <v>117.152924888676</v>
+        <v>117.1529248886756</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>13.86848151347315</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.05051610390704</v>
+        <v>12.05051610390705</v>
       </c>
       <c r="L43" t="n">
-        <v>71.78779978211902</v>
+        <v>71.78779978211904</v>
       </c>
       <c r="M43" t="n">
-        <v>86.39006808644453</v>
+        <v>86.39006808644454</v>
       </c>
       <c r="N43" t="n">
-        <v>89.52909919181758</v>
+        <v>89.52909919181759</v>
       </c>
       <c r="O43" t="n">
-        <v>67.20310213610719</v>
+        <v>67.20310213610722</v>
       </c>
       <c r="P43" t="n">
-        <v>34.0468116586552</v>
+        <v>34.04681165865522</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.86848151347321</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>7.222647088608852</v>
       </c>
       <c r="J44" t="n">
-        <v>43.02727925481461</v>
+        <v>235.6303370678316</v>
       </c>
       <c r="K44" t="n">
-        <v>380.6015055743671</v>
+        <v>323.7883748516599</v>
       </c>
       <c r="L44" t="n">
         <v>285.7227167140721</v>
@@ -38026,7 +38026,7 @@
         <v>333.2875286099775</v>
       </c>
       <c r="N44" t="n">
-        <v>466.0191293095828</v>
+        <v>323.0065551306645</v>
       </c>
       <c r="O44" t="n">
         <v>258.4116363164988</v>
@@ -38038,7 +38038,7 @@
         <v>59.64394438826194</v>
       </c>
       <c r="R44" t="n">
-        <v>83.0852667950125</v>
+        <v>83.08526679501244</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>33.48740445666537</v>
+        <v>33.48740445666542</v>
       </c>
       <c r="K45" t="n">
         <v>185.1197658221336</v>
@@ -38181,7 +38181,7 @@
         <v>71.78779978211902</v>
       </c>
       <c r="M46" t="n">
-        <v>100.2585495999178</v>
+        <v>86.39006808644453</v>
       </c>
       <c r="N46" t="n">
         <v>89.52909919181758</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>13.86848151347361</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
